--- a/5 改版后自动化网页提交/5.4/写作序列.xlsx
+++ b/5 改版后自动化网页提交/5.4/写作序列.xlsx
@@ -598,15 +598,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C81"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -649,8 +649,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -661,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -672,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -682,8 +685,11 @@
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -693,8 +699,11 @@
       <c r="C8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -705,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -715,8 +724,11 @@
       <c r="C10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -727,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -738,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -748,8 +760,11 @@
       <c r="C13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -760,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -771,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -781,8 +796,11 @@
       <c r="C16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -793,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -804,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -815,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -825,8 +843,11 @@
       <c r="C20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -837,7 +858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -847,8 +868,11 @@
       <c r="C22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -859,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -870,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -880,8 +904,11 @@
       <c r="C25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -891,8 +918,11 @@
       <c r="C26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -903,7 +933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -914,7 +944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -925,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -936,7 +966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -946,8 +976,11 @@
       <c r="C31">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -958,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -969,7 +1002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -980,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -991,7 +1024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1002,7 +1035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1024,7 +1057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1035,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1046,7 +1079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1057,7 +1090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1068,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1079,7 +1112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1090,7 +1123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1101,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1111,8 +1144,11 @@
       <c r="C46">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1123,7 +1159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1310,7 +1346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1321,7 +1357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1332,7 +1368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1343,7 +1379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1354,7 +1390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1365,7 +1401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1376,7 +1412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1387,7 +1423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1398,7 +1434,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1409,7 +1445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1420,7 +1456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1431,7 +1467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1441,8 +1477,11 @@
       <c r="C76">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1453,7 +1492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1464,7 +1503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1475,7 +1514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>

--- a/5 改版后自动化网页提交/5.4/写作序列.xlsx
+++ b/5 改版后自动化网页提交/5.4/写作序列.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,15 +598,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -702,8 +702,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -714,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -728,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -739,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -750,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -763,8 +766,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -775,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -786,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -799,8 +805,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -811,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -822,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -833,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -847,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -858,7 +867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -872,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -883,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -894,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -908,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -922,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -933,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -944,7 +953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -955,7 +964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -966,7 +975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -980,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1035,7 +1044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1068,7 +1077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1346,7 +1355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1467,7 +1476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>

--- a/5 改版后自动化网页提交/5.4/写作序列.xlsx
+++ b/5 改版后自动化网页提交/5.4/写作序列.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="已写状态" sheetId="1" r:id="rId1"/>
+    <sheet name="0121写作状态" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0121写作状态'!$A$1:$U$81</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="374">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,13 +278,898 @@
   </si>
   <si>
     <t>S20LC60US</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1FK60&amp;id=10</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1FK70&amp;id=11</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1FK100&amp;id=12</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1FL20U&amp;id=13</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1FL40U&amp;id=14</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D3CE60K&amp;id=15</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=M2FL20U&amp;id=16</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D2FL20U&amp;id=19</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D2FK60&amp;id=20</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D3FK60&amp;id=21</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DE3L20UA&amp;id=22</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DE3L40A&amp;id=23</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DE5L60&amp;id=24</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DE5L60U&amp;id=25</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF8L60US&amp;id=26</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF10L60&amp;id=27</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF20L60&amp;id=28</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF20L60U&amp;id=29</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D30FD60K&amp;id=31</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF3L60U&amp;id=32</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF5L60U&amp;id=33</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF10L60U&amp;id=34</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF20L60U&amp;id=35</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF3K60M&amp;id=36</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF5L40UM&amp;id=37</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF5K60M&amp;id=38</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF8K60M&amp;id=40</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF10K60M&amp;id=41</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20K60T&amp;id=45</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S30K60T&amp;id=46</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D30L60&amp;id=47</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1NF60&amp;id=51</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1NK60&amp;id=52</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1NL20U&amp;id=53</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1NL40U&amp;id=54</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D1NK100&amp;id=55</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D2L20U&amp;id=56</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D2L40U&amp;id=57</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S2L20U&amp;id=58</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S2L60&amp;id=59</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S2L40U&amp;id=60</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S2K100&amp;id=61</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S3L60&amp;id=62</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S3L20U&amp;id=63</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S3L40U&amp;id=64</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S3K60&amp;id=65</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DE5LC20U&amp;id=66</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DE5LC40&amp;id=67</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF10LC30&amp;id=69</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF20LC30&amp;id=71</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20LC30T&amp;id=81</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D20LC20U&amp;id=86</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D20LC40&amp;id=87</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D120LC40&amp;id=88</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D240LC40&amp;id=91</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D4SBL20U&amp;id=92</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D4SBL40&amp;id=93</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF20LC30&amp;id=95</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20LC30&amp;id=96</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRRM</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IFSM</t>
+  </si>
+  <si>
+    <t>VFMAX</t>
+  </si>
+  <si>
+    <t>IF2</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>TRR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref1</t>
+  </si>
+  <si>
+    <t>ref2</t>
+  </si>
+  <si>
+    <t>ref3</t>
+  </si>
+  <si>
+    <t>特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大整流电流0.8A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>-55 to +150</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>5.0×2.5×2.0</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/search_NEW.php?category_id=01&amp;sub_id=05</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D1FK60.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>•Small SMD•High Voltage•Low Noise•Based on AEC-Q101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大整流电流0.8A，反向工作电压700V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D1FK70.pdf</t>
+  </si>
+  <si>
+    <t>•Small SMD•High Voltage•Low Noise•Based on AEC-Q101</t>
+  </si>
+  <si>
+    <t>最大整流电流1A，反向工作电压1000V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D1FK100.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流1.1A，反向工作电压200V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D1FL20U.pdf</t>
+  </si>
+  <si>
+    <t>•Small SMD•High Recovery Speed•Based on AEC-Q101</t>
+  </si>
+  <si>
+    <t>最大整流电流1.5A，反向工作电压400V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D1FL40U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流3A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>4.7×2.4×0.98</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J534_D3CE60K.pdf</t>
+  </si>
+  <si>
+    <t>•Ultra-small SMD•Ultra-thin PKG=1.0mm•Based on AEC-Q101</t>
+  </si>
+  <si>
+    <t>最大整流电流1.5A，反向工作电压200V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>M2F</t>
+  </si>
+  <si>
+    <t>5.1×3.75×2.0</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_M2FL20U.pdf</t>
+  </si>
+  <si>
+    <t>•Small SMD•High Recovery Speed</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>7.6×4.0×2.8</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D2FL20U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流1.5A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D2FK60.pdf</t>
+  </si>
+  <si>
+    <t>•Small SMD•High Voltage•Low Noise</t>
+  </si>
+  <si>
+    <t>最大整流电流2.1A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D3FK60.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流3A，反向工作电压200V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>E-pack</t>
+  </si>
+  <si>
+    <t>9.5×6.6×2.65</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DE3L20UA.pdf</t>
+  </si>
+  <si>
+    <t>•SMD•High Recovery Speed</t>
+  </si>
+  <si>
+    <t>最大整流电流3A，反向工作电压400V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DE3L40A.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流5A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DE5L60.pdf</t>
+  </si>
+  <si>
+    <t>•SMD•High Voltage•Low Noise</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DE5L60U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流8A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>STO-220</t>
+  </si>
+  <si>
+    <t>13.2×10.2×4.7</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF8L60US.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流10A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF10L60.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF20L60.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF20L60U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流30A，反向工作电压600V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>13.2×10.2×4.6</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_D30FD60K.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流3A，反向工作电压600V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>THD</t>
+  </si>
+  <si>
+    <t>FTO-220</t>
+  </si>
+  <si>
+    <t>28.5×10.0×4.5</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF3L60U.pdf</t>
+  </si>
+  <si>
+    <t>•Full Molded•High Voltage•Low Noise•Dielectric Strength 2kV</t>
+  </si>
+  <si>
+    <t>最大整流电流5A，反向工作电压600V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF5L60U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流10A，反向工作电压600V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF10L60U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压600V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF20L60U.pdf</t>
+  </si>
+  <si>
+    <t>FTO-220AG</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF3K60M.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流5A，反向工作电压400V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF5L40UM.pdf</t>
+  </si>
+  <si>
+    <t>•Full Molded•High Recovery Speed•Dielectric Strength 2kV</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF5K60M.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流8A，反向工作电压600V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF8K60USM&amp;id=39</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF8K60USM.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF8K60M.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF10K60M.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流5A，反向工作电压200V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>FTO-220G</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SG5L20USM&amp;id=43</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SG5L20USM.pdf</t>
+  </si>
+  <si>
+    <t>•High Recovery Speed</t>
+  </si>
+  <si>
+    <t>最大整流电流10A，反向工作电压200V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SG10L20USM&amp;id=44</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SG10L20USM.pdf</t>
+  </si>
+  <si>
+    <t>MTO-3PT</t>
+  </si>
+  <si>
+    <t>41.0×16.0×5.0</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20K60T.pdf</t>
+  </si>
+  <si>
+    <t>•High Voltage•Low Noise</t>
+  </si>
+  <si>
+    <t>最大整流电流30A，反向工作电压600V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S30K60T.pdf</t>
+  </si>
+  <si>
+    <t>ITO-3P</t>
+  </si>
+  <si>
+    <t>40.0×15.0×5.5</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D30L60.pdf</t>
+  </si>
+  <si>
+    <t>•Full Molded•High Voltage•Low Noise</t>
+  </si>
+  <si>
+    <t>最大整流电流0.8A，反向工作电压600V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>Axial Type</t>
+  </si>
+  <si>
+    <t>AX057</t>
+  </si>
+  <si>
+    <t>3.0×φ2.6</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D1NF60.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D1NK60.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流1A，反向工作电压200V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D1NL20U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流1A，反向工作电压400V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D1NL40U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流1A，反向工作电压1000V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D1NK100.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流1.5A，反向工作电压200V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>-40 to +150</t>
+  </si>
+  <si>
+    <t>AX078</t>
+  </si>
+  <si>
+    <t>5.0×φ4.0</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D2L20U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流2A，反向工作电压400V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D2L40U.pdf</t>
+  </si>
+  <si>
+    <t>AX10</t>
+  </si>
+  <si>
+    <t>7.0×φ4.4</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S2L20U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流1.5A，反向工作电压600V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S2L60.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S2L40U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流2A，反向工作电压1000V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S2K100.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流2.2A，反向工作电压600V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>AX14</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S3L60.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流3A，反向工作电压200V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S3L20U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流3A，反向工作电压400V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S3L40U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流3A，反向工作电压600V，一款Axial Type封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S3K60.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流5A，反向工作电压200V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DE5LC20U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流5A，反向工作电压400V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DE5LC40.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流10A，反向工作电压200V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF10LC20U&amp;id=68</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF10LC20U.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流10A，反向工作电压300V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF10LC30.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压200V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=DF20LC20US&amp;id=70</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF20LC20US.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压300V，一款SMD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J532_DF20LC30.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF5LC40UM&amp;id=72</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF5LC40UM.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流10A，反向工作电压400V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF10LC40UM&amp;id=73</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF10LC40UM.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF10KC60M&amp;id=74</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF10KC60M.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压300V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF20LC30M&amp;id=75</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF20LC30M.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF20KC60M&amp;id=76</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF20KC60M.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SG5LC20USM&amp;id=77</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SG5LC20USM.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流10A，反向工作电压200V，一款THD封装的快恢复二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SG10LC20USM&amp;id=78</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SG10LC20USM.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压200V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SG20LC20USM&amp;id=79</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SG20LC20USM.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20LC20UST&amp;id=80</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC20UST.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC30T.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压400V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20LC40UT&amp;id=82</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC40UT.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20LC60UST&amp;id=83</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC60UST.pdf</t>
+  </si>
+  <si>
+    <t>MTO-3PV</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20LC40UV&amp;id=84</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC40UV.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D20LC20U.pdf</t>
+  </si>
+  <si>
+    <t>•Full Molded•High Recovery Speed</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D20LC40.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流120A，反向工作电压400V，一款Module封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>43.0×27.0×21.0</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D120LC40.pdf</t>
+  </si>
+  <si>
+    <t>•High Io Rating Module Package•High Recovery Speed</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D120LC40B&amp;id=89</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D120LC40B.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流200A，反向工作电压400V，一款Module封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=D200LC40B&amp;id=90</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D200LC40B.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流240A，反向工作电压400V，一款Module封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_D240LC40.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流4A，反向工作电压200V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>32.5×25.0×4.6</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J534_D4SBL20U.pdf</t>
+  </si>
+  <si>
+    <t>•Compact SIP•High Recovery Speed</t>
+  </si>
+  <si>
+    <t>最大整流电流4A，反向工作电压400V，一款THD封装的快恢复二极管</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J534_D4SBL40.pdf</t>
+  </si>
+  <si>
+    <t>FTO-220A</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=SF8L60USM&amp;id=94</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF8L60USM.pdf</t>
+  </si>
+  <si>
+    <t>最大整流电流20A，反向工作电压300V，一款THD封装的快恢复二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_SF20LC30.pdf</t>
+  </si>
+  <si>
+    <t>MTO-3P</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC30.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=05&amp;product_id=S20LC60US&amp;id=97</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC60US.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +1182,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,14 +1210,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,13 +1500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -628,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -653,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -664,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -675,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -689,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -706,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -717,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -731,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -742,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -753,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -770,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -781,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -792,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -809,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -820,7 +1723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -831,7 +1734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -842,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -856,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -867,7 +1770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -881,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -892,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -903,7 +1806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -917,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -931,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -942,7 +1845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -953,7 +1856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -964,7 +1867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -975,7 +1878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -989,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1000,7 +1903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1011,7 +1914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1033,7 +1936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1055,7 +1958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1066,7 +1969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1077,7 +1980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1088,7 +1991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +2002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1110,7 +2013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1121,7 +2024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +2035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1143,7 +2046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1157,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1168,7 +2071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1179,7 +2082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1190,7 +2093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1201,7 +2104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1212,7 +2115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1223,7 +2126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1234,7 +2137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1245,7 +2148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1256,7 +2159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1267,7 +2170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1278,7 +2181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1289,7 +2192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1300,7 +2203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1311,7 +2214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1322,7 +2225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1333,7 +2236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1344,7 +2247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1355,7 +2258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1366,7 +2269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1377,7 +2280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1388,7 +2291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1399,7 +2302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1410,7 +2313,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1421,7 +2324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1432,7 +2335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1443,7 +2346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1454,7 +2357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1465,7 +2368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1476,7 +2379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1490,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1501,7 +2404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1512,7 +2415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1523,7 +2426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1534,7 +2437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1550,4 +2453,5348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" customWidth="1"/>
+    <col min="22" max="22" width="57.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>1.3</v>
+      </c>
+      <c r="J2">
+        <v>0.8</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>600</v>
+      </c>
+      <c r="M2">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R2" t="s">
+        <v>165</v>
+      </c>
+      <c r="S2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3">
+        <v>700</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>1.3</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>700</v>
+      </c>
+      <c r="M3">
+        <v>400</v>
+      </c>
+      <c r="N3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3">
+        <v>150</v>
+      </c>
+      <c r="P3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" t="s">
+        <v>170</v>
+      </c>
+      <c r="V3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>2.1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4">
+        <v>150</v>
+      </c>
+      <c r="P4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" t="s">
+        <v>173</v>
+      </c>
+      <c r="V4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0.98</v>
+      </c>
+      <c r="J5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5">
+        <v>150</v>
+      </c>
+      <c r="P5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>164</v>
+      </c>
+      <c r="R5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S5" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" t="s">
+        <v>175</v>
+      </c>
+      <c r="V5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>1.2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6">
+        <v>150</v>
+      </c>
+      <c r="P6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" t="s">
+        <v>178</v>
+      </c>
+      <c r="V6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1.45</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>600</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7">
+        <v>150</v>
+      </c>
+      <c r="P7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>180</v>
+      </c>
+      <c r="R7" t="s">
+        <v>181</v>
+      </c>
+      <c r="S7" t="s">
+        <v>166</v>
+      </c>
+      <c r="T7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" t="s">
+        <v>182</v>
+      </c>
+      <c r="V7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>0.92</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>200</v>
+      </c>
+      <c r="M8">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="P8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>0.98</v>
+      </c>
+      <c r="J9">
+        <v>1.5</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>200</v>
+      </c>
+      <c r="M9">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9">
+        <v>150</v>
+      </c>
+      <c r="P9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>189</v>
+      </c>
+      <c r="R9" t="s">
+        <v>190</v>
+      </c>
+      <c r="S9" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9" t="s">
+        <v>90</v>
+      </c>
+      <c r="U9" t="s">
+        <v>191</v>
+      </c>
+      <c r="V9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>1.3</v>
+      </c>
+      <c r="J10">
+        <v>1.5</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>600</v>
+      </c>
+      <c r="M10">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10">
+        <v>150</v>
+      </c>
+      <c r="P10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>189</v>
+      </c>
+      <c r="R10" t="s">
+        <v>190</v>
+      </c>
+      <c r="S10" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" t="s">
+        <v>193</v>
+      </c>
+      <c r="V10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+      <c r="G11">
+        <v>2.1</v>
+      </c>
+      <c r="H11">
+        <v>120</v>
+      </c>
+      <c r="I11">
+        <v>1.2</v>
+      </c>
+      <c r="J11">
+        <v>2.1</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>600</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11">
+        <v>150</v>
+      </c>
+      <c r="P11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11" t="s">
+        <v>196</v>
+      </c>
+      <c r="V11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>0.98</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+      <c r="M12">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12">
+        <v>150</v>
+      </c>
+      <c r="P12" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>198</v>
+      </c>
+      <c r="R12" t="s">
+        <v>199</v>
+      </c>
+      <c r="S12" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" t="s">
+        <v>93</v>
+      </c>
+      <c r="U12" t="s">
+        <v>200</v>
+      </c>
+      <c r="V12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13">
+        <v>400</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>1.3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>400</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13">
+        <v>150</v>
+      </c>
+      <c r="P13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>198</v>
+      </c>
+      <c r="R13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S13" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14">
+        <v>600</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>600</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14">
+        <v>150</v>
+      </c>
+      <c r="P14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>198</v>
+      </c>
+      <c r="R14" t="s">
+        <v>199</v>
+      </c>
+      <c r="S14" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" t="s">
+        <v>205</v>
+      </c>
+      <c r="V14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15">
+        <v>600</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>600</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15">
+        <v>150</v>
+      </c>
+      <c r="P15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>198</v>
+      </c>
+      <c r="R15" t="s">
+        <v>199</v>
+      </c>
+      <c r="S15" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U15" t="s">
+        <v>207</v>
+      </c>
+      <c r="V15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>3.6</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>600</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16">
+        <v>150</v>
+      </c>
+      <c r="P16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" t="s">
+        <v>210</v>
+      </c>
+      <c r="S16" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U16" t="s">
+        <v>211</v>
+      </c>
+      <c r="V16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>1.9</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>600</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17">
+        <v>150</v>
+      </c>
+      <c r="P17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>209</v>
+      </c>
+      <c r="R17" t="s">
+        <v>210</v>
+      </c>
+      <c r="S17" t="s">
+        <v>166</v>
+      </c>
+      <c r="T17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17" t="s">
+        <v>213</v>
+      </c>
+      <c r="V17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18">
+        <v>600</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>170</v>
+      </c>
+      <c r="I18">
+        <v>1.9</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>600</v>
+      </c>
+      <c r="M18">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18">
+        <v>150</v>
+      </c>
+      <c r="P18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>209</v>
+      </c>
+      <c r="R18" t="s">
+        <v>210</v>
+      </c>
+      <c r="S18" t="s">
+        <v>166</v>
+      </c>
+      <c r="T18" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" t="s">
+        <v>215</v>
+      </c>
+      <c r="V18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19">
+        <v>600</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>160</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>600</v>
+      </c>
+      <c r="M19">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19">
+        <v>150</v>
+      </c>
+      <c r="P19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>209</v>
+      </c>
+      <c r="R19" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T19" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" t="s">
+        <v>216</v>
+      </c>
+      <c r="V19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20">
+        <v>600</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+      <c r="I20">
+        <v>1.7</v>
+      </c>
+      <c r="J20">
+        <v>30</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>600</v>
+      </c>
+      <c r="M20">
+        <v>95</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20">
+        <v>150</v>
+      </c>
+      <c r="P20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" t="s">
+        <v>219</v>
+      </c>
+      <c r="S20" t="s">
+        <v>166</v>
+      </c>
+      <c r="T20" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" t="s">
+        <v>220</v>
+      </c>
+      <c r="V20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21">
+        <v>600</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>600</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21">
+        <v>150</v>
+      </c>
+      <c r="P21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>223</v>
+      </c>
+      <c r="R21" t="s">
+        <v>224</v>
+      </c>
+      <c r="S21" t="s">
+        <v>166</v>
+      </c>
+      <c r="T21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" t="s">
+        <v>225</v>
+      </c>
+      <c r="V21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22">
+        <v>600</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>600</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22">
+        <v>150</v>
+      </c>
+      <c r="P22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>223</v>
+      </c>
+      <c r="R22" t="s">
+        <v>224</v>
+      </c>
+      <c r="S22" t="s">
+        <v>166</v>
+      </c>
+      <c r="T22" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" t="s">
+        <v>228</v>
+      </c>
+      <c r="V22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23">
+        <v>600</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>600</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23">
+        <v>150</v>
+      </c>
+      <c r="P23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>223</v>
+      </c>
+      <c r="R23" t="s">
+        <v>224</v>
+      </c>
+      <c r="S23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T23" t="s">
+        <v>104</v>
+      </c>
+      <c r="U23" t="s">
+        <v>230</v>
+      </c>
+      <c r="V23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24">
+        <v>600</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>180</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>600</v>
+      </c>
+      <c r="M24">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24">
+        <v>150</v>
+      </c>
+      <c r="P24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>223</v>
+      </c>
+      <c r="R24" t="s">
+        <v>224</v>
+      </c>
+      <c r="S24" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" t="s">
+        <v>105</v>
+      </c>
+      <c r="U24" t="s">
+        <v>232</v>
+      </c>
+      <c r="V24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25">
+        <v>600</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+      <c r="I25">
+        <v>1.45</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>600</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
+      </c>
+      <c r="N25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25">
+        <v>150</v>
+      </c>
+      <c r="P25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>233</v>
+      </c>
+      <c r="R25" t="s">
+        <v>224</v>
+      </c>
+      <c r="S25" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" t="s">
+        <v>106</v>
+      </c>
+      <c r="U25" t="s">
+        <v>234</v>
+      </c>
+      <c r="V25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26">
+        <v>400</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>1.25</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>400</v>
+      </c>
+      <c r="M26">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26">
+        <v>150</v>
+      </c>
+      <c r="P26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>233</v>
+      </c>
+      <c r="R26" t="s">
+        <v>224</v>
+      </c>
+      <c r="S26" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" t="s">
+        <v>236</v>
+      </c>
+      <c r="V26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27">
+        <v>600</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>120</v>
+      </c>
+      <c r="I27">
+        <v>1.5</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>600</v>
+      </c>
+      <c r="M27">
+        <v>85</v>
+      </c>
+      <c r="N27" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27">
+        <v>150</v>
+      </c>
+      <c r="P27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>233</v>
+      </c>
+      <c r="R27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S27" t="s">
+        <v>166</v>
+      </c>
+      <c r="T27" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" t="s">
+        <v>238</v>
+      </c>
+      <c r="V27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28">
+        <v>600</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>60</v>
+      </c>
+      <c r="I28">
+        <v>3.6</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>50</v>
+      </c>
+      <c r="L28">
+        <v>600</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28">
+        <v>150</v>
+      </c>
+      <c r="P28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>233</v>
+      </c>
+      <c r="R28" t="s">
+        <v>224</v>
+      </c>
+      <c r="S28" t="s">
+        <v>166</v>
+      </c>
+      <c r="T28" t="s">
+        <v>240</v>
+      </c>
+      <c r="U28" t="s">
+        <v>241</v>
+      </c>
+      <c r="V28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29">
+        <v>600</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>150</v>
+      </c>
+      <c r="I29">
+        <v>1.5</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>600</v>
+      </c>
+      <c r="M29">
+        <v>90</v>
+      </c>
+      <c r="N29" t="s">
+        <v>162</v>
+      </c>
+      <c r="O29">
+        <v>150</v>
+      </c>
+      <c r="P29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>233</v>
+      </c>
+      <c r="R29" t="s">
+        <v>224</v>
+      </c>
+      <c r="S29" t="s">
+        <v>166</v>
+      </c>
+      <c r="T29" t="s">
+        <v>109</v>
+      </c>
+      <c r="U29" t="s">
+        <v>242</v>
+      </c>
+      <c r="V29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30">
+        <v>600</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>180</v>
+      </c>
+      <c r="I30">
+        <v>1.5</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>600</v>
+      </c>
+      <c r="M30">
+        <v>95</v>
+      </c>
+      <c r="N30" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30">
+        <v>150</v>
+      </c>
+      <c r="P30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>233</v>
+      </c>
+      <c r="R30" t="s">
+        <v>224</v>
+      </c>
+      <c r="S30" t="s">
+        <v>166</v>
+      </c>
+      <c r="T30" t="s">
+        <v>110</v>
+      </c>
+      <c r="U30" t="s">
+        <v>243</v>
+      </c>
+      <c r="V30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
+      <c r="I31">
+        <v>0.96</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>200</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31">
+        <v>150</v>
+      </c>
+      <c r="P31" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>245</v>
+      </c>
+      <c r="R31" t="s">
+        <v>224</v>
+      </c>
+      <c r="S31" t="s">
+        <v>166</v>
+      </c>
+      <c r="T31" t="s">
+        <v>246</v>
+      </c>
+      <c r="U31" t="s">
+        <v>247</v>
+      </c>
+      <c r="V31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>200</v>
+      </c>
+      <c r="I32">
+        <v>0.96</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>200</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>162</v>
+      </c>
+      <c r="O32">
+        <v>150</v>
+      </c>
+      <c r="P32" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>245</v>
+      </c>
+      <c r="R32" t="s">
+        <v>224</v>
+      </c>
+      <c r="S32" t="s">
+        <v>166</v>
+      </c>
+      <c r="T32" t="s">
+        <v>250</v>
+      </c>
+      <c r="U32" t="s">
+        <v>251</v>
+      </c>
+      <c r="V32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33">
+        <v>600</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>300</v>
+      </c>
+      <c r="I33">
+        <v>1.5</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>600</v>
+      </c>
+      <c r="M33">
+        <v>95</v>
+      </c>
+      <c r="N33" t="s">
+        <v>162</v>
+      </c>
+      <c r="O33">
+        <v>150</v>
+      </c>
+      <c r="P33" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>252</v>
+      </c>
+      <c r="R33" t="s">
+        <v>253</v>
+      </c>
+      <c r="S33" t="s">
+        <v>166</v>
+      </c>
+      <c r="T33" t="s">
+        <v>111</v>
+      </c>
+      <c r="U33" t="s">
+        <v>254</v>
+      </c>
+      <c r="V33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34">
+        <v>600</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>450</v>
+      </c>
+      <c r="I34">
+        <v>1.5</v>
+      </c>
+      <c r="J34">
+        <v>30</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>600</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34" t="s">
+        <v>162</v>
+      </c>
+      <c r="O34">
+        <v>150</v>
+      </c>
+      <c r="P34" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>252</v>
+      </c>
+      <c r="R34" t="s">
+        <v>253</v>
+      </c>
+      <c r="S34" t="s">
+        <v>166</v>
+      </c>
+      <c r="T34" t="s">
+        <v>112</v>
+      </c>
+      <c r="U34" t="s">
+        <v>257</v>
+      </c>
+      <c r="V34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35">
+        <v>600</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>600</v>
+      </c>
+      <c r="I35">
+        <v>1.5</v>
+      </c>
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35">
+        <v>25</v>
+      </c>
+      <c r="L35">
+        <v>600</v>
+      </c>
+      <c r="M35">
+        <v>150</v>
+      </c>
+      <c r="N35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O35">
+        <v>150</v>
+      </c>
+      <c r="P35" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>258</v>
+      </c>
+      <c r="R35" t="s">
+        <v>259</v>
+      </c>
+      <c r="S35" t="s">
+        <v>166</v>
+      </c>
+      <c r="T35" t="s">
+        <v>113</v>
+      </c>
+      <c r="U35" t="s">
+        <v>260</v>
+      </c>
+      <c r="V35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36">
+        <v>600</v>
+      </c>
+      <c r="G36">
+        <v>0.8</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <v>1.3</v>
+      </c>
+      <c r="J36">
+        <v>0.8</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>600</v>
+      </c>
+      <c r="M36">
+        <v>400</v>
+      </c>
+      <c r="N36" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36">
+        <v>150</v>
+      </c>
+      <c r="P36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>264</v>
+      </c>
+      <c r="R36" t="s">
+        <v>265</v>
+      </c>
+      <c r="S36" t="s">
+        <v>166</v>
+      </c>
+      <c r="T36" t="s">
+        <v>114</v>
+      </c>
+      <c r="U36" t="s">
+        <v>266</v>
+      </c>
+      <c r="V36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37">
+        <v>600</v>
+      </c>
+      <c r="G37">
+        <v>0.8</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>1.3</v>
+      </c>
+      <c r="J37">
+        <v>0.8</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>600</v>
+      </c>
+      <c r="M37">
+        <v>75</v>
+      </c>
+      <c r="N37" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37">
+        <v>150</v>
+      </c>
+      <c r="P37" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>264</v>
+      </c>
+      <c r="R37" t="s">
+        <v>265</v>
+      </c>
+      <c r="S37" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" t="s">
+        <v>115</v>
+      </c>
+      <c r="U37" t="s">
+        <v>267</v>
+      </c>
+      <c r="V37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>25</v>
+      </c>
+      <c r="I38">
+        <v>0.98</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>200</v>
+      </c>
+      <c r="M38">
+        <v>35</v>
+      </c>
+      <c r="N38" t="s">
+        <v>162</v>
+      </c>
+      <c r="O38">
+        <v>150</v>
+      </c>
+      <c r="P38" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>264</v>
+      </c>
+      <c r="R38" t="s">
+        <v>265</v>
+      </c>
+      <c r="S38" t="s">
+        <v>166</v>
+      </c>
+      <c r="T38" t="s">
+        <v>116</v>
+      </c>
+      <c r="U38" t="s">
+        <v>269</v>
+      </c>
+      <c r="V38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39">
+        <v>400</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>1.25</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>400</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>162</v>
+      </c>
+      <c r="O39">
+        <v>150</v>
+      </c>
+      <c r="P39" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>264</v>
+      </c>
+      <c r="R39" t="s">
+        <v>265</v>
+      </c>
+      <c r="S39" t="s">
+        <v>166</v>
+      </c>
+      <c r="T39" t="s">
+        <v>117</v>
+      </c>
+      <c r="U39" t="s">
+        <v>271</v>
+      </c>
+      <c r="V39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>2.1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>1000</v>
+      </c>
+      <c r="M40">
+        <v>75</v>
+      </c>
+      <c r="N40" t="s">
+        <v>162</v>
+      </c>
+      <c r="O40">
+        <v>150</v>
+      </c>
+      <c r="P40" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>264</v>
+      </c>
+      <c r="R40" t="s">
+        <v>265</v>
+      </c>
+      <c r="S40" t="s">
+        <v>166</v>
+      </c>
+      <c r="T40" t="s">
+        <v>118</v>
+      </c>
+      <c r="U40" t="s">
+        <v>273</v>
+      </c>
+      <c r="V40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
+      </c>
+      <c r="G41">
+        <v>1.5</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>0.98</v>
+      </c>
+      <c r="J41">
+        <v>1.5</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>200</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41" t="s">
+        <v>275</v>
+      </c>
+      <c r="O41">
+        <v>150</v>
+      </c>
+      <c r="P41" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>276</v>
+      </c>
+      <c r="R41" t="s">
+        <v>277</v>
+      </c>
+      <c r="S41" t="s">
+        <v>166</v>
+      </c>
+      <c r="T41" t="s">
+        <v>119</v>
+      </c>
+      <c r="U41" t="s">
+        <v>278</v>
+      </c>
+      <c r="V41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42">
+        <v>400</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>1.25</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>400</v>
+      </c>
+      <c r="M42">
+        <v>35</v>
+      </c>
+      <c r="N42" t="s">
+        <v>162</v>
+      </c>
+      <c r="O42">
+        <v>150</v>
+      </c>
+      <c r="P42" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>276</v>
+      </c>
+      <c r="R42" t="s">
+        <v>277</v>
+      </c>
+      <c r="S42" t="s">
+        <v>166</v>
+      </c>
+      <c r="T42" t="s">
+        <v>120</v>
+      </c>
+      <c r="U42" t="s">
+        <v>280</v>
+      </c>
+      <c r="V42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43">
+        <v>200</v>
+      </c>
+      <c r="G43">
+        <v>1.5</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>0.98</v>
+      </c>
+      <c r="J43">
+        <v>1.5</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>200</v>
+      </c>
+      <c r="M43">
+        <v>35</v>
+      </c>
+      <c r="N43" t="s">
+        <v>275</v>
+      </c>
+      <c r="O43">
+        <v>150</v>
+      </c>
+      <c r="P43" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>281</v>
+      </c>
+      <c r="R43" t="s">
+        <v>282</v>
+      </c>
+      <c r="S43" t="s">
+        <v>166</v>
+      </c>
+      <c r="T43" t="s">
+        <v>121</v>
+      </c>
+      <c r="U43" t="s">
+        <v>283</v>
+      </c>
+      <c r="V43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44">
+        <v>600</v>
+      </c>
+      <c r="G44">
+        <v>1.5</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>1.5</v>
+      </c>
+      <c r="J44">
+        <v>1.5</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>600</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="N44" t="s">
+        <v>162</v>
+      </c>
+      <c r="O44">
+        <v>150</v>
+      </c>
+      <c r="P44" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>281</v>
+      </c>
+      <c r="R44" t="s">
+        <v>282</v>
+      </c>
+      <c r="S44" t="s">
+        <v>166</v>
+      </c>
+      <c r="T44" t="s">
+        <v>122</v>
+      </c>
+      <c r="U44" t="s">
+        <v>285</v>
+      </c>
+      <c r="V44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45">
+        <v>400</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>1.25</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>400</v>
+      </c>
+      <c r="M45">
+        <v>35</v>
+      </c>
+      <c r="N45" t="s">
+        <v>162</v>
+      </c>
+      <c r="O45">
+        <v>150</v>
+      </c>
+      <c r="P45" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>281</v>
+      </c>
+      <c r="R45" t="s">
+        <v>282</v>
+      </c>
+      <c r="S45" t="s">
+        <v>166</v>
+      </c>
+      <c r="T45" t="s">
+        <v>123</v>
+      </c>
+      <c r="U45" t="s">
+        <v>286</v>
+      </c>
+      <c r="V45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>65</v>
+      </c>
+      <c r="I46">
+        <v>2.1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>1000</v>
+      </c>
+      <c r="M46">
+        <v>75</v>
+      </c>
+      <c r="N46" t="s">
+        <v>162</v>
+      </c>
+      <c r="O46">
+        <v>150</v>
+      </c>
+      <c r="P46" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>281</v>
+      </c>
+      <c r="R46" t="s">
+        <v>282</v>
+      </c>
+      <c r="S46" t="s">
+        <v>166</v>
+      </c>
+      <c r="T46" t="s">
+        <v>124</v>
+      </c>
+      <c r="U46" t="s">
+        <v>288</v>
+      </c>
+      <c r="V46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47">
+        <v>600</v>
+      </c>
+      <c r="G47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H47">
+        <v>60</v>
+      </c>
+      <c r="I47">
+        <v>1.5</v>
+      </c>
+      <c r="J47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>600</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+      <c r="N47" t="s">
+        <v>162</v>
+      </c>
+      <c r="O47">
+        <v>150</v>
+      </c>
+      <c r="P47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>290</v>
+      </c>
+      <c r="R47" t="s">
+        <v>282</v>
+      </c>
+      <c r="S47" t="s">
+        <v>166</v>
+      </c>
+      <c r="T47" t="s">
+        <v>125</v>
+      </c>
+      <c r="U47" t="s">
+        <v>291</v>
+      </c>
+      <c r="V47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48">
+        <v>200</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>60</v>
+      </c>
+      <c r="I48">
+        <v>0.98</v>
+      </c>
+      <c r="J48">
+        <v>2.1</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>200</v>
+      </c>
+      <c r="M48">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
+        <v>275</v>
+      </c>
+      <c r="O48">
+        <v>150</v>
+      </c>
+      <c r="P48" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>290</v>
+      </c>
+      <c r="R48" t="s">
+        <v>282</v>
+      </c>
+      <c r="S48" t="s">
+        <v>166</v>
+      </c>
+      <c r="T48" t="s">
+        <v>126</v>
+      </c>
+      <c r="U48" t="s">
+        <v>293</v>
+      </c>
+      <c r="V48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49">
+        <v>400</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>150</v>
+      </c>
+      <c r="I49">
+        <v>1.25</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>400</v>
+      </c>
+      <c r="M49">
+        <v>35</v>
+      </c>
+      <c r="N49" t="s">
+        <v>162</v>
+      </c>
+      <c r="O49">
+        <v>150</v>
+      </c>
+      <c r="P49" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>290</v>
+      </c>
+      <c r="R49" t="s">
+        <v>282</v>
+      </c>
+      <c r="S49" t="s">
+        <v>166</v>
+      </c>
+      <c r="T49" t="s">
+        <v>127</v>
+      </c>
+      <c r="U49" t="s">
+        <v>295</v>
+      </c>
+      <c r="V49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>296</v>
+      </c>
+      <c r="F50">
+        <v>600</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>120</v>
+      </c>
+      <c r="I50">
+        <v>1.3</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>600</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50" t="s">
+        <v>162</v>
+      </c>
+      <c r="O50">
+        <v>150</v>
+      </c>
+      <c r="P50" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>290</v>
+      </c>
+      <c r="R50" t="s">
+        <v>282</v>
+      </c>
+      <c r="S50" t="s">
+        <v>166</v>
+      </c>
+      <c r="T50" t="s">
+        <v>128</v>
+      </c>
+      <c r="U50" t="s">
+        <v>297</v>
+      </c>
+      <c r="V50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51">
+        <v>200</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>0.98</v>
+      </c>
+      <c r="J51">
+        <v>2.5</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>200</v>
+      </c>
+      <c r="M51">
+        <v>35</v>
+      </c>
+      <c r="N51" t="s">
+        <v>162</v>
+      </c>
+      <c r="O51">
+        <v>150</v>
+      </c>
+      <c r="P51" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>198</v>
+      </c>
+      <c r="R51" t="s">
+        <v>199</v>
+      </c>
+      <c r="S51" t="s">
+        <v>166</v>
+      </c>
+      <c r="T51" t="s">
+        <v>129</v>
+      </c>
+      <c r="U51" t="s">
+        <v>299</v>
+      </c>
+      <c r="V51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52">
+        <v>400</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>1.3</v>
+      </c>
+      <c r="J52">
+        <v>2.5</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>400</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52" t="s">
+        <v>162</v>
+      </c>
+      <c r="O52">
+        <v>150</v>
+      </c>
+      <c r="P52" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>198</v>
+      </c>
+      <c r="R52" t="s">
+        <v>199</v>
+      </c>
+      <c r="S52" t="s">
+        <v>166</v>
+      </c>
+      <c r="T52" t="s">
+        <v>130</v>
+      </c>
+      <c r="U52" t="s">
+        <v>301</v>
+      </c>
+      <c r="V52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53">
+        <v>200</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>80</v>
+      </c>
+      <c r="I53">
+        <v>0.98</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>200</v>
+      </c>
+      <c r="M53">
+        <v>35</v>
+      </c>
+      <c r="N53" t="s">
+        <v>275</v>
+      </c>
+      <c r="O53">
+        <v>150</v>
+      </c>
+      <c r="P53" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>209</v>
+      </c>
+      <c r="R53" t="s">
+        <v>210</v>
+      </c>
+      <c r="S53" t="s">
+        <v>166</v>
+      </c>
+      <c r="T53" t="s">
+        <v>303</v>
+      </c>
+      <c r="U53" t="s">
+        <v>304</v>
+      </c>
+      <c r="V53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>305</v>
+      </c>
+      <c r="F54">
+        <v>300</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>1.3</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>25</v>
+      </c>
+      <c r="L54">
+        <v>300</v>
+      </c>
+      <c r="M54">
+        <v>30</v>
+      </c>
+      <c r="N54" t="s">
+        <v>162</v>
+      </c>
+      <c r="O54">
+        <v>150</v>
+      </c>
+      <c r="P54" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>209</v>
+      </c>
+      <c r="R54" t="s">
+        <v>210</v>
+      </c>
+      <c r="S54" t="s">
+        <v>166</v>
+      </c>
+      <c r="T54" t="s">
+        <v>131</v>
+      </c>
+      <c r="U54" t="s">
+        <v>306</v>
+      </c>
+      <c r="V54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>307</v>
+      </c>
+      <c r="F55">
+        <v>200</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>180</v>
+      </c>
+      <c r="I55">
+        <v>0.96</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>200</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>162</v>
+      </c>
+      <c r="O55">
+        <v>150</v>
+      </c>
+      <c r="P55" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>209</v>
+      </c>
+      <c r="R55" t="s">
+        <v>210</v>
+      </c>
+      <c r="S55" t="s">
+        <v>166</v>
+      </c>
+      <c r="T55" t="s">
+        <v>308</v>
+      </c>
+      <c r="U55" t="s">
+        <v>309</v>
+      </c>
+      <c r="V55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>310</v>
+      </c>
+      <c r="F56">
+        <v>300</v>
+      </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>180</v>
+      </c>
+      <c r="I56">
+        <v>1.3</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>25</v>
+      </c>
+      <c r="L56">
+        <v>300</v>
+      </c>
+      <c r="M56">
+        <v>30</v>
+      </c>
+      <c r="N56" t="s">
+        <v>162</v>
+      </c>
+      <c r="O56">
+        <v>150</v>
+      </c>
+      <c r="P56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>209</v>
+      </c>
+      <c r="R56" t="s">
+        <v>210</v>
+      </c>
+      <c r="S56" t="s">
+        <v>166</v>
+      </c>
+      <c r="T56" t="s">
+        <v>132</v>
+      </c>
+      <c r="U56" t="s">
+        <v>311</v>
+      </c>
+      <c r="V56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57">
+        <v>400</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>80</v>
+      </c>
+      <c r="I57">
+        <v>1.25</v>
+      </c>
+      <c r="J57">
+        <v>2.5</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>400</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+      <c r="N57" t="s">
+        <v>162</v>
+      </c>
+      <c r="O57">
+        <v>150</v>
+      </c>
+      <c r="P57" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>233</v>
+      </c>
+      <c r="R57" t="s">
+        <v>224</v>
+      </c>
+      <c r="S57" t="s">
+        <v>166</v>
+      </c>
+      <c r="T57" t="s">
+        <v>312</v>
+      </c>
+      <c r="U57" t="s">
+        <v>313</v>
+      </c>
+      <c r="V57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F58">
+        <v>400</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>1.25</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>400</v>
+      </c>
+      <c r="M58">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>162</v>
+      </c>
+      <c r="O58">
+        <v>150</v>
+      </c>
+      <c r="P58" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>233</v>
+      </c>
+      <c r="R58" t="s">
+        <v>224</v>
+      </c>
+      <c r="S58" t="s">
+        <v>166</v>
+      </c>
+      <c r="T58" t="s">
+        <v>315</v>
+      </c>
+      <c r="U58" t="s">
+        <v>316</v>
+      </c>
+      <c r="V58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F59">
+        <v>600</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>120</v>
+      </c>
+      <c r="I59">
+        <v>1.5</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+      <c r="L59">
+        <v>600</v>
+      </c>
+      <c r="M59">
+        <v>85</v>
+      </c>
+      <c r="N59" t="s">
+        <v>162</v>
+      </c>
+      <c r="O59">
+        <v>150</v>
+      </c>
+      <c r="P59" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>233</v>
+      </c>
+      <c r="R59" t="s">
+        <v>224</v>
+      </c>
+      <c r="S59" t="s">
+        <v>166</v>
+      </c>
+      <c r="T59" t="s">
+        <v>317</v>
+      </c>
+      <c r="U59" t="s">
+        <v>318</v>
+      </c>
+      <c r="V59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>319</v>
+      </c>
+      <c r="F60">
+        <v>300</v>
+      </c>
+      <c r="G60">
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>250</v>
+      </c>
+      <c r="I60">
+        <v>1.3</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <v>300</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>162</v>
+      </c>
+      <c r="O60">
+        <v>150</v>
+      </c>
+      <c r="P60" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>233</v>
+      </c>
+      <c r="R60" t="s">
+        <v>224</v>
+      </c>
+      <c r="S60" t="s">
+        <v>166</v>
+      </c>
+      <c r="T60" t="s">
+        <v>320</v>
+      </c>
+      <c r="U60" t="s">
+        <v>321</v>
+      </c>
+      <c r="V60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61">
+        <v>600</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>180</v>
+      </c>
+      <c r="I61">
+        <v>1.5</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>600</v>
+      </c>
+      <c r="M61">
+        <v>95</v>
+      </c>
+      <c r="N61" t="s">
+        <v>162</v>
+      </c>
+      <c r="O61">
+        <v>150</v>
+      </c>
+      <c r="P61" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>233</v>
+      </c>
+      <c r="R61" t="s">
+        <v>224</v>
+      </c>
+      <c r="S61" t="s">
+        <v>166</v>
+      </c>
+      <c r="T61" t="s">
+        <v>322</v>
+      </c>
+      <c r="U61" t="s">
+        <v>323</v>
+      </c>
+      <c r="V61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>70</v>
+      </c>
+      <c r="I62">
+        <v>0.96</v>
+      </c>
+      <c r="J62">
+        <v>2.5</v>
+      </c>
+      <c r="K62">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>200</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62" t="s">
+        <v>162</v>
+      </c>
+      <c r="O62">
+        <v>150</v>
+      </c>
+      <c r="P62" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>245</v>
+      </c>
+      <c r="R62" t="s">
+        <v>224</v>
+      </c>
+      <c r="S62" t="s">
+        <v>166</v>
+      </c>
+      <c r="T62" t="s">
+        <v>324</v>
+      </c>
+      <c r="U62" t="s">
+        <v>325</v>
+      </c>
+      <c r="V62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63">
+        <v>200</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>90</v>
+      </c>
+      <c r="I63">
+        <v>0.96</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>200</v>
+      </c>
+      <c r="M63">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>162</v>
+      </c>
+      <c r="O63">
+        <v>150</v>
+      </c>
+      <c r="P63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>245</v>
+      </c>
+      <c r="R63" t="s">
+        <v>224</v>
+      </c>
+      <c r="S63" t="s">
+        <v>166</v>
+      </c>
+      <c r="T63" t="s">
+        <v>327</v>
+      </c>
+      <c r="U63" t="s">
+        <v>328</v>
+      </c>
+      <c r="V63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>329</v>
+      </c>
+      <c r="F64">
+        <v>200</v>
+      </c>
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>150</v>
+      </c>
+      <c r="I64">
+        <v>0.96</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>10</v>
+      </c>
+      <c r="L64">
+        <v>200</v>
+      </c>
+      <c r="M64">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>162</v>
+      </c>
+      <c r="O64">
+        <v>150</v>
+      </c>
+      <c r="P64" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>245</v>
+      </c>
+      <c r="R64" t="s">
+        <v>224</v>
+      </c>
+      <c r="S64" t="s">
+        <v>166</v>
+      </c>
+      <c r="T64" t="s">
+        <v>330</v>
+      </c>
+      <c r="U64" t="s">
+        <v>331</v>
+      </c>
+      <c r="V64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>329</v>
+      </c>
+      <c r="F65">
+        <v>200</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>120</v>
+      </c>
+      <c r="I65">
+        <v>0.96</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <v>10</v>
+      </c>
+      <c r="L65">
+        <v>200</v>
+      </c>
+      <c r="M65">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>162</v>
+      </c>
+      <c r="O65">
+        <v>150</v>
+      </c>
+      <c r="P65" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>252</v>
+      </c>
+      <c r="R65" t="s">
+        <v>253</v>
+      </c>
+      <c r="S65" t="s">
+        <v>166</v>
+      </c>
+      <c r="T65" t="s">
+        <v>332</v>
+      </c>
+      <c r="U65" t="s">
+        <v>333</v>
+      </c>
+      <c r="V65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66">
+        <v>300</v>
+      </c>
+      <c r="G66">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>220</v>
+      </c>
+      <c r="I66">
+        <v>1.3</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>25</v>
+      </c>
+      <c r="L66">
+        <v>300</v>
+      </c>
+      <c r="M66">
+        <v>30</v>
+      </c>
+      <c r="N66" t="s">
+        <v>162</v>
+      </c>
+      <c r="O66">
+        <v>150</v>
+      </c>
+      <c r="P66" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>252</v>
+      </c>
+      <c r="R66" t="s">
+        <v>253</v>
+      </c>
+      <c r="S66" t="s">
+        <v>166</v>
+      </c>
+      <c r="T66" t="s">
+        <v>133</v>
+      </c>
+      <c r="U66" t="s">
+        <v>334</v>
+      </c>
+      <c r="V66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>335</v>
+      </c>
+      <c r="F67">
+        <v>400</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>130</v>
+      </c>
+      <c r="I67">
+        <v>1.25</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>400</v>
+      </c>
+      <c r="M67">
+        <v>30</v>
+      </c>
+      <c r="N67" t="s">
+        <v>162</v>
+      </c>
+      <c r="O67">
+        <v>150</v>
+      </c>
+      <c r="P67" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>252</v>
+      </c>
+      <c r="R67" t="s">
+        <v>253</v>
+      </c>
+      <c r="S67" t="s">
+        <v>166</v>
+      </c>
+      <c r="T67" t="s">
+        <v>336</v>
+      </c>
+      <c r="U67" t="s">
+        <v>337</v>
+      </c>
+      <c r="V67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68">
+        <v>600</v>
+      </c>
+      <c r="G68">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <v>60</v>
+      </c>
+      <c r="I68">
+        <v>3.6</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>50</v>
+      </c>
+      <c r="L68">
+        <v>600</v>
+      </c>
+      <c r="M68">
+        <v>25</v>
+      </c>
+      <c r="N68" t="s">
+        <v>162</v>
+      </c>
+      <c r="O68">
+        <v>150</v>
+      </c>
+      <c r="P68" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>252</v>
+      </c>
+      <c r="R68" t="s">
+        <v>253</v>
+      </c>
+      <c r="S68" t="s">
+        <v>166</v>
+      </c>
+      <c r="T68" t="s">
+        <v>338</v>
+      </c>
+      <c r="U68" t="s">
+        <v>339</v>
+      </c>
+      <c r="V68" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>335</v>
+      </c>
+      <c r="F69">
+        <v>400</v>
+      </c>
+      <c r="G69">
+        <v>20</v>
+      </c>
+      <c r="H69">
+        <v>200</v>
+      </c>
+      <c r="I69">
+        <v>1.25</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>400</v>
+      </c>
+      <c r="M69">
+        <v>30</v>
+      </c>
+      <c r="N69" t="s">
+        <v>162</v>
+      </c>
+      <c r="O69">
+        <v>150</v>
+      </c>
+      <c r="P69" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>340</v>
+      </c>
+      <c r="R69" t="s">
+        <v>253</v>
+      </c>
+      <c r="S69" t="s">
+        <v>166</v>
+      </c>
+      <c r="T69" t="s">
+        <v>341</v>
+      </c>
+      <c r="U69" t="s">
+        <v>342</v>
+      </c>
+      <c r="V69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70">
+        <v>200</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>150</v>
+      </c>
+      <c r="I70">
+        <v>0.98</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>200</v>
+      </c>
+      <c r="M70">
+        <v>35</v>
+      </c>
+      <c r="N70" t="s">
+        <v>275</v>
+      </c>
+      <c r="O70">
+        <v>150</v>
+      </c>
+      <c r="P70" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>258</v>
+      </c>
+      <c r="R70" t="s">
+        <v>259</v>
+      </c>
+      <c r="S70" t="s">
+        <v>166</v>
+      </c>
+      <c r="T70" t="s">
+        <v>134</v>
+      </c>
+      <c r="U70" t="s">
+        <v>343</v>
+      </c>
+      <c r="V70" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>43</v>
+      </c>
+      <c r="E71" t="s">
+        <v>335</v>
+      </c>
+      <c r="F71">
+        <v>400</v>
+      </c>
+      <c r="G71">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>120</v>
+      </c>
+      <c r="I71">
+        <v>1.3</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>10</v>
+      </c>
+      <c r="L71">
+        <v>400</v>
+      </c>
+      <c r="M71">
+        <v>50</v>
+      </c>
+      <c r="N71" t="s">
+        <v>275</v>
+      </c>
+      <c r="O71">
+        <v>150</v>
+      </c>
+      <c r="P71" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>258</v>
+      </c>
+      <c r="R71" t="s">
+        <v>259</v>
+      </c>
+      <c r="S71" t="s">
+        <v>166</v>
+      </c>
+      <c r="T71" t="s">
+        <v>135</v>
+      </c>
+      <c r="U71" t="s">
+        <v>345</v>
+      </c>
+      <c r="V71" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>346</v>
+      </c>
+      <c r="F72">
+        <v>400</v>
+      </c>
+      <c r="G72">
+        <v>120</v>
+      </c>
+      <c r="H72">
+        <v>650</v>
+      </c>
+      <c r="I72">
+        <v>1.3</v>
+      </c>
+      <c r="J72">
+        <v>60</v>
+      </c>
+      <c r="K72">
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <v>400</v>
+      </c>
+      <c r="M72">
+        <v>100</v>
+      </c>
+      <c r="N72" t="s">
+        <v>275</v>
+      </c>
+      <c r="O72">
+        <v>150</v>
+      </c>
+      <c r="P72" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>347</v>
+      </c>
+      <c r="R72" t="s">
+        <v>348</v>
+      </c>
+      <c r="S72" t="s">
+        <v>166</v>
+      </c>
+      <c r="T72" t="s">
+        <v>136</v>
+      </c>
+      <c r="U72" t="s">
+        <v>349</v>
+      </c>
+      <c r="V72" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>44</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>346</v>
+      </c>
+      <c r="F73">
+        <v>400</v>
+      </c>
+      <c r="G73">
+        <v>120</v>
+      </c>
+      <c r="H73">
+        <v>650</v>
+      </c>
+      <c r="I73">
+        <v>1.3</v>
+      </c>
+      <c r="J73">
+        <v>60</v>
+      </c>
+      <c r="K73">
+        <v>25</v>
+      </c>
+      <c r="L73">
+        <v>400</v>
+      </c>
+      <c r="M73">
+        <v>100</v>
+      </c>
+      <c r="N73" t="s">
+        <v>275</v>
+      </c>
+      <c r="O73">
+        <v>150</v>
+      </c>
+      <c r="P73" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>347</v>
+      </c>
+      <c r="R73" t="s">
+        <v>348</v>
+      </c>
+      <c r="S73" t="s">
+        <v>166</v>
+      </c>
+      <c r="T73" t="s">
+        <v>351</v>
+      </c>
+      <c r="U73" t="s">
+        <v>352</v>
+      </c>
+      <c r="V73" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>353</v>
+      </c>
+      <c r="F74">
+        <v>400</v>
+      </c>
+      <c r="G74">
+        <v>200</v>
+      </c>
+      <c r="H74">
+        <v>1400</v>
+      </c>
+      <c r="I74">
+        <v>1.3</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74">
+        <v>50</v>
+      </c>
+      <c r="L74">
+        <v>400</v>
+      </c>
+      <c r="M74">
+        <v>150</v>
+      </c>
+      <c r="N74" t="s">
+        <v>275</v>
+      </c>
+      <c r="O74">
+        <v>150</v>
+      </c>
+      <c r="P74" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>347</v>
+      </c>
+      <c r="R74" t="s">
+        <v>348</v>
+      </c>
+      <c r="S74" t="s">
+        <v>166</v>
+      </c>
+      <c r="T74" t="s">
+        <v>354</v>
+      </c>
+      <c r="U74" t="s">
+        <v>355</v>
+      </c>
+      <c r="V74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75">
+        <v>400</v>
+      </c>
+      <c r="G75">
+        <v>240</v>
+      </c>
+      <c r="H75">
+        <v>1400</v>
+      </c>
+      <c r="I75">
+        <v>1.3</v>
+      </c>
+      <c r="J75">
+        <v>120</v>
+      </c>
+      <c r="K75">
+        <v>50</v>
+      </c>
+      <c r="L75">
+        <v>400</v>
+      </c>
+      <c r="M75">
+        <v>150</v>
+      </c>
+      <c r="N75" t="s">
+        <v>275</v>
+      </c>
+      <c r="O75">
+        <v>150</v>
+      </c>
+      <c r="P75" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>347</v>
+      </c>
+      <c r="R75" t="s">
+        <v>348</v>
+      </c>
+      <c r="S75" t="s">
+        <v>166</v>
+      </c>
+      <c r="T75" t="s">
+        <v>137</v>
+      </c>
+      <c r="U75" t="s">
+        <v>357</v>
+      </c>
+      <c r="V75" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>358</v>
+      </c>
+      <c r="F76">
+        <v>200</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>80</v>
+      </c>
+      <c r="I76">
+        <v>0.98</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>10</v>
+      </c>
+      <c r="L76">
+        <v>200</v>
+      </c>
+      <c r="M76">
+        <v>35</v>
+      </c>
+      <c r="N76" t="s">
+        <v>162</v>
+      </c>
+      <c r="O76">
+        <v>150</v>
+      </c>
+      <c r="P76" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>359</v>
+      </c>
+      <c r="R76" t="s">
+        <v>360</v>
+      </c>
+      <c r="S76" t="s">
+        <v>166</v>
+      </c>
+      <c r="T76" t="s">
+        <v>138</v>
+      </c>
+      <c r="U76" t="s">
+        <v>361</v>
+      </c>
+      <c r="V76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>363</v>
+      </c>
+      <c r="F77">
+        <v>400</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>50</v>
+      </c>
+      <c r="I77">
+        <v>1.3</v>
+      </c>
+      <c r="J77">
+        <v>2.5</v>
+      </c>
+      <c r="K77">
+        <v>10</v>
+      </c>
+      <c r="L77">
+        <v>400</v>
+      </c>
+      <c r="M77">
+        <v>50</v>
+      </c>
+      <c r="N77" t="s">
+        <v>162</v>
+      </c>
+      <c r="O77">
+        <v>150</v>
+      </c>
+      <c r="P77" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>359</v>
+      </c>
+      <c r="R77" t="s">
+        <v>360</v>
+      </c>
+      <c r="S77" t="s">
+        <v>166</v>
+      </c>
+      <c r="T77" t="s">
+        <v>139</v>
+      </c>
+      <c r="U77" t="s">
+        <v>364</v>
+      </c>
+      <c r="V77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78">
+        <v>600</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78">
+        <v>60</v>
+      </c>
+      <c r="I78">
+        <v>3.6</v>
+      </c>
+      <c r="J78">
+        <v>8</v>
+      </c>
+      <c r="K78">
+        <v>50</v>
+      </c>
+      <c r="L78">
+        <v>600</v>
+      </c>
+      <c r="M78">
+        <v>25</v>
+      </c>
+      <c r="N78" t="s">
+        <v>162</v>
+      </c>
+      <c r="O78">
+        <v>150</v>
+      </c>
+      <c r="P78" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>365</v>
+      </c>
+      <c r="R78" t="s">
+        <v>224</v>
+      </c>
+      <c r="S78" t="s">
+        <v>166</v>
+      </c>
+      <c r="T78" t="s">
+        <v>366</v>
+      </c>
+      <c r="U78" t="s">
+        <v>367</v>
+      </c>
+      <c r="V78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>47</v>
+      </c>
+      <c r="E79" t="s">
+        <v>368</v>
+      </c>
+      <c r="F79">
+        <v>300</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>180</v>
+      </c>
+      <c r="I79">
+        <v>1.3</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>25</v>
+      </c>
+      <c r="L79">
+        <v>300</v>
+      </c>
+      <c r="M79">
+        <v>30</v>
+      </c>
+      <c r="N79" t="s">
+        <v>162</v>
+      </c>
+      <c r="O79">
+        <v>150</v>
+      </c>
+      <c r="P79" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>223</v>
+      </c>
+      <c r="R79" t="s">
+        <v>224</v>
+      </c>
+      <c r="S79" t="s">
+        <v>166</v>
+      </c>
+      <c r="T79" t="s">
+        <v>140</v>
+      </c>
+      <c r="U79" t="s">
+        <v>369</v>
+      </c>
+      <c r="V79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>48</v>
+      </c>
+      <c r="E80" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80">
+        <v>300</v>
+      </c>
+      <c r="G80">
+        <v>20</v>
+      </c>
+      <c r="H80">
+        <v>180</v>
+      </c>
+      <c r="I80">
+        <v>1.3</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>25</v>
+      </c>
+      <c r="L80">
+        <v>300</v>
+      </c>
+      <c r="M80">
+        <v>30</v>
+      </c>
+      <c r="N80" t="s">
+        <v>162</v>
+      </c>
+      <c r="O80">
+        <v>150</v>
+      </c>
+      <c r="P80" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>370</v>
+      </c>
+      <c r="R80" t="s">
+        <v>253</v>
+      </c>
+      <c r="S80" t="s">
+        <v>166</v>
+      </c>
+      <c r="T80" t="s">
+        <v>141</v>
+      </c>
+      <c r="U80" t="s">
+        <v>371</v>
+      </c>
+      <c r="V80" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81">
+        <v>600</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81">
+        <v>60</v>
+      </c>
+      <c r="I81">
+        <v>3.6</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>50</v>
+      </c>
+      <c r="L81">
+        <v>600</v>
+      </c>
+      <c r="M81">
+        <v>25</v>
+      </c>
+      <c r="N81" t="s">
+        <v>162</v>
+      </c>
+      <c r="O81">
+        <v>150</v>
+      </c>
+      <c r="P81" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>370</v>
+      </c>
+      <c r="R81" t="s">
+        <v>253</v>
+      </c>
+      <c r="S81" t="s">
+        <v>166</v>
+      </c>
+      <c r="T81" t="s">
+        <v>372</v>
+      </c>
+      <c r="U81" t="s">
+        <v>373</v>
+      </c>
+      <c r="V81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
 </file>
--- a/5 改版后自动化网页提交/5.4/写作序列.xlsx
+++ b/5 改版后自动化网页提交/5.4/写作序列.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="0121写作状态" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0121写作状态'!$A$1:$U$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'0121写作状态'!$A$1:$V$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="423">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1163,13 +1163,209 @@
   </si>
   <si>
     <t>http://www.shindengen.co.jp//product/semi/datasheet/J533_S20LC60US.pdf</t>
+  </si>
+  <si>
+    <t>D120LC40B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D240LC40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20LC30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2FK60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2FL20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D30L60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3K60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF8L60USM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF20LC30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FK60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FK70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20LC60US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4SBL40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE5L60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE5L60U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF8K60USM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF8K60M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20K60T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S30K60T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20LC20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20LC40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FL20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D120LC40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D200LC40B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FL40U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1NL20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1NL40U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20LC40UT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20LC40UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF10L60U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF10L60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF20L60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1NF60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1NK60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG5LC20USM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20LC60UST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2L20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2L40U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3L60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3L20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF20LC30M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF20KC60M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20LC20UST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE5LC20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2L20U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2L40U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF10LC40UM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF10KC60M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,21 +1380,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1210,17 +1404,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1500,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1622,7 +1814,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2459,21 +2651,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="44.21875" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="57.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -2490,63 +2682,63 @@
         <v>142</v>
       </c>
       <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
       </c>
       <c r="I1" t="s">
         <v>147</v>
       </c>
       <c r="J1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" t="s">
         <v>148</v>
       </c>
-      <c r="K1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>155</v>
-      </c>
-      <c r="R1" t="s">
-        <v>156</v>
-      </c>
-      <c r="S1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>383</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2554,64 +2746,67 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>161</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>600</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.8</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
       </c>
       <c r="I2">
         <v>1.3</v>
       </c>
       <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2">
+        <v>150</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2">
+        <v>600</v>
+      </c>
+      <c r="U2">
         <v>0.8</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>600</v>
-      </c>
-      <c r="M2">
-        <v>75</v>
-      </c>
-      <c r="N2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2">
-        <v>150</v>
-      </c>
-      <c r="P2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>164</v>
-      </c>
-      <c r="R2" t="s">
-        <v>165</v>
-      </c>
-      <c r="S2" t="s">
-        <v>166</v>
-      </c>
-      <c r="T2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="V2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>384</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2619,59 +2814,62 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>169</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>700</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.8</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
       </c>
       <c r="I3">
         <v>1.3</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3">
+        <v>400</v>
+      </c>
+      <c r="O3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3">
+        <v>150</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R3" t="s">
+        <v>170</v>
+      </c>
+      <c r="S3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3">
+        <v>700</v>
+      </c>
+      <c r="U3">
         <v>0.8</v>
       </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>700</v>
-      </c>
-      <c r="M3">
-        <v>400</v>
-      </c>
-      <c r="N3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3">
-        <v>150</v>
-      </c>
-      <c r="P3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
         <v>164</v>
-      </c>
-      <c r="R3" t="s">
-        <v>165</v>
-      </c>
-      <c r="S3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" t="s">
-        <v>170</v>
-      </c>
-      <c r="V3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2688,63 +2886,63 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
         <v>172</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
       </c>
       <c r="I4">
         <v>2.1</v>
       </c>
       <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4">
+        <v>150</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R4" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4">
+        <v>1000</v>
+      </c>
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>75</v>
-      </c>
-      <c r="N4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4">
-        <v>150</v>
-      </c>
-      <c r="P4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>164</v>
-      </c>
-      <c r="R4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S4" t="s">
-        <v>166</v>
-      </c>
-      <c r="T4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" t="s">
-        <v>173</v>
-      </c>
-      <c r="V4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2752,64 +2950,67 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
         <v>174</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="1">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
         <v>20</v>
       </c>
-      <c r="I5">
-        <v>0.98</v>
-      </c>
-      <c r="J5">
+      <c r="L5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N5" s="1">
+        <v>35</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>166</v>
+      </c>
+      <c r="R5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S5" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5">
+        <v>200</v>
+      </c>
+      <c r="U5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>200</v>
-      </c>
-      <c r="M5">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>162</v>
-      </c>
-      <c r="O5">
-        <v>150</v>
-      </c>
-      <c r="P5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="V5" t="s">
         <v>164</v>
-      </c>
-      <c r="R5" t="s">
-        <v>165</v>
-      </c>
-      <c r="S5" t="s">
-        <v>166</v>
-      </c>
-      <c r="T5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" t="s">
-        <v>175</v>
-      </c>
-      <c r="V5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>399</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2817,59 +3018,62 @@
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
         <v>177</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>400</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>1.5</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
         <v>30</v>
       </c>
-      <c r="I6">
-        <v>1.2</v>
-      </c>
-      <c r="J6">
+      <c r="L6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" s="1">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S6" t="s">
+        <v>176</v>
+      </c>
+      <c r="T6">
+        <v>400</v>
+      </c>
+      <c r="U6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>400</v>
-      </c>
-      <c r="M6">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6">
-        <v>150</v>
-      </c>
-      <c r="P6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>164</v>
-      </c>
-      <c r="R6" t="s">
-        <v>165</v>
-      </c>
-      <c r="S6" t="s">
-        <v>166</v>
-      </c>
-      <c r="T6" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" t="s">
-        <v>178</v>
-      </c>
-      <c r="V6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2886,58 +3090,58 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
         <v>179</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>600</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
       </c>
       <c r="I7">
         <v>1.45</v>
       </c>
       <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7">
+        <v>150</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" t="s">
+        <v>182</v>
+      </c>
+      <c r="S7" t="s">
+        <v>183</v>
+      </c>
+      <c r="T7">
+        <v>600</v>
+      </c>
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>600</v>
-      </c>
-      <c r="M7">
-        <v>80</v>
-      </c>
-      <c r="N7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O7">
-        <v>150</v>
-      </c>
-      <c r="P7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
         <v>180</v>
-      </c>
-      <c r="R7" t="s">
-        <v>181</v>
-      </c>
-      <c r="S7" t="s">
-        <v>166</v>
-      </c>
-      <c r="T7" t="s">
-        <v>88</v>
-      </c>
-      <c r="U7" t="s">
-        <v>182</v>
-      </c>
-      <c r="V7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2954,63 +3158,63 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
         <v>184</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>200</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.5</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
       </c>
       <c r="I8">
         <v>0.92</v>
       </c>
       <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8">
+        <v>150</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" t="s">
+        <v>188</v>
+      </c>
+      <c r="T8">
+        <v>200</v>
+      </c>
+      <c r="U8">
         <v>1.5</v>
       </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>200</v>
-      </c>
-      <c r="M8">
-        <v>35</v>
-      </c>
-      <c r="N8" t="s">
-        <v>162</v>
-      </c>
-      <c r="O8">
-        <v>150</v>
-      </c>
-      <c r="P8" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="V8" t="s">
         <v>185</v>
-      </c>
-      <c r="R8" t="s">
-        <v>186</v>
-      </c>
-      <c r="S8" t="s">
-        <v>166</v>
-      </c>
-      <c r="T8" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" t="s">
-        <v>187</v>
-      </c>
-      <c r="V8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3018,59 +3222,62 @@
       <c r="C9">
         <v>5</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
         <v>184</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>200</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.5</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
       </c>
       <c r="I9">
         <v>0.98</v>
       </c>
       <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9">
+        <v>150</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" t="s">
+        <v>191</v>
+      </c>
+      <c r="S9" t="s">
+        <v>176</v>
+      </c>
+      <c r="T9">
+        <v>200</v>
+      </c>
+      <c r="U9">
         <v>1.5</v>
       </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>200</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9">
-        <v>150</v>
-      </c>
-      <c r="P9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="V9" t="s">
         <v>189</v>
-      </c>
-      <c r="R9" t="s">
-        <v>190</v>
-      </c>
-      <c r="S9" t="s">
-        <v>166</v>
-      </c>
-      <c r="T9" t="s">
-        <v>90</v>
-      </c>
-      <c r="U9" t="s">
-        <v>191</v>
-      </c>
-      <c r="V9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3087,58 +3294,58 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
         <v>192</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>600</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.5</v>
-      </c>
-      <c r="H10">
-        <v>40</v>
       </c>
       <c r="I10">
         <v>1.3</v>
       </c>
       <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10">
+        <v>150</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>166</v>
+      </c>
+      <c r="R10" t="s">
+        <v>193</v>
+      </c>
+      <c r="S10" t="s">
+        <v>194</v>
+      </c>
+      <c r="T10">
+        <v>600</v>
+      </c>
+      <c r="U10">
         <v>1.5</v>
       </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>600</v>
-      </c>
-      <c r="M10">
-        <v>75</v>
-      </c>
-      <c r="N10" t="s">
-        <v>162</v>
-      </c>
-      <c r="O10">
-        <v>150</v>
-      </c>
-      <c r="P10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="V10" t="s">
         <v>189</v>
-      </c>
-      <c r="R10" t="s">
-        <v>190</v>
-      </c>
-      <c r="S10" t="s">
-        <v>166</v>
-      </c>
-      <c r="T10" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" t="s">
-        <v>193</v>
-      </c>
-      <c r="V10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3151,59 +3358,62 @@
       <c r="C11">
         <v>6</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
         <v>195</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>600</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.1</v>
-      </c>
-      <c r="H11">
-        <v>120</v>
       </c>
       <c r="I11">
         <v>1.2</v>
       </c>
       <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11">
+        <v>150</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" t="s">
+        <v>196</v>
+      </c>
+      <c r="S11" t="s">
+        <v>194</v>
+      </c>
+      <c r="T11">
+        <v>600</v>
+      </c>
+      <c r="U11">
         <v>2.1</v>
       </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>600</v>
-      </c>
-      <c r="M11">
-        <v>100</v>
-      </c>
-      <c r="N11" t="s">
-        <v>162</v>
-      </c>
-      <c r="O11">
-        <v>150</v>
-      </c>
-      <c r="P11" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="V11" t="s">
         <v>189</v>
-      </c>
-      <c r="R11" t="s">
-        <v>190</v>
-      </c>
-      <c r="S11" t="s">
-        <v>166</v>
-      </c>
-      <c r="T11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U11" t="s">
-        <v>196</v>
-      </c>
-      <c r="V11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3216,59 +3426,62 @@
       <c r="C12">
         <v>7</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
         <v>197</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>200</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
       </c>
       <c r="I12">
         <v>0.98</v>
       </c>
       <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+      <c r="L12" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>162</v>
+      </c>
+      <c r="P12">
+        <v>150</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" t="s">
+        <v>201</v>
+      </c>
+      <c r="T12">
+        <v>200</v>
+      </c>
+      <c r="U12">
         <v>3</v>
       </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>200</v>
-      </c>
-      <c r="M12">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s">
-        <v>162</v>
-      </c>
-      <c r="O12">
-        <v>150</v>
-      </c>
-      <c r="P12" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="V12" t="s">
         <v>198</v>
-      </c>
-      <c r="R12" t="s">
-        <v>199</v>
-      </c>
-      <c r="S12" t="s">
-        <v>166</v>
-      </c>
-      <c r="T12" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" t="s">
-        <v>200</v>
-      </c>
-      <c r="V12" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3285,63 +3498,63 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
         <v>202</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>400</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
       </c>
       <c r="I13">
         <v>1.3</v>
       </c>
       <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="O13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13">
+        <v>150</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" t="s">
+        <v>203</v>
+      </c>
+      <c r="S13" t="s">
+        <v>201</v>
+      </c>
+      <c r="T13">
+        <v>400</v>
+      </c>
+      <c r="U13">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <v>400</v>
-      </c>
-      <c r="M13">
-        <v>50</v>
-      </c>
-      <c r="N13" t="s">
-        <v>162</v>
-      </c>
-      <c r="O13">
-        <v>150</v>
-      </c>
-      <c r="P13" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="V13" t="s">
         <v>198</v>
-      </c>
-      <c r="R13" t="s">
-        <v>199</v>
-      </c>
-      <c r="S13" t="s">
-        <v>166</v>
-      </c>
-      <c r="T13" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" t="s">
-        <v>203</v>
-      </c>
-      <c r="V13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>387</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3349,64 +3562,67 @@
       <c r="C14">
         <v>8</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
         <v>204</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>600</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14">
+        <v>150</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>166</v>
+      </c>
+      <c r="R14" t="s">
+        <v>205</v>
+      </c>
+      <c r="S14" t="s">
+        <v>206</v>
+      </c>
+      <c r="T14">
+        <v>600</v>
+      </c>
+      <c r="U14">
         <v>5</v>
       </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <v>600</v>
-      </c>
-      <c r="M14">
-        <v>50</v>
-      </c>
-      <c r="N14" t="s">
-        <v>162</v>
-      </c>
-      <c r="O14">
-        <v>150</v>
-      </c>
-      <c r="P14" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="V14" t="s">
         <v>198</v>
-      </c>
-      <c r="R14" t="s">
-        <v>199</v>
-      </c>
-      <c r="S14" t="s">
-        <v>166</v>
-      </c>
-      <c r="T14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" t="s">
-        <v>205</v>
-      </c>
-      <c r="V14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>388</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3414,59 +3630,62 @@
       <c r="C15">
         <v>8</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
         <v>204</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>600</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15">
+        <v>150</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" t="s">
+        <v>207</v>
+      </c>
+      <c r="S15" t="s">
+        <v>206</v>
+      </c>
+      <c r="T15">
+        <v>600</v>
+      </c>
+      <c r="U15">
         <v>5</v>
       </c>
-      <c r="K15">
-        <v>25</v>
-      </c>
-      <c r="L15">
-        <v>600</v>
-      </c>
-      <c r="M15">
-        <v>25</v>
-      </c>
-      <c r="N15" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15">
-        <v>150</v>
-      </c>
-      <c r="P15" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="V15" t="s">
         <v>198</v>
-      </c>
-      <c r="R15" t="s">
-        <v>199</v>
-      </c>
-      <c r="S15" t="s">
-        <v>166</v>
-      </c>
-      <c r="T15" t="s">
-        <v>96</v>
-      </c>
-      <c r="U15" t="s">
-        <v>207</v>
-      </c>
-      <c r="V15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3483,63 +3702,63 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
         <v>208</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>600</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
       </c>
       <c r="I16">
         <v>3.6</v>
       </c>
       <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="s">
+        <v>210</v>
+      </c>
+      <c r="N16">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16">
+        <v>150</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>166</v>
+      </c>
+      <c r="R16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S16" t="s">
+        <v>206</v>
+      </c>
+      <c r="T16">
+        <v>600</v>
+      </c>
+      <c r="U16">
         <v>8</v>
       </c>
-      <c r="K16">
-        <v>50</v>
-      </c>
-      <c r="L16">
-        <v>600</v>
-      </c>
-      <c r="M16">
-        <v>25</v>
-      </c>
-      <c r="N16" t="s">
-        <v>162</v>
-      </c>
-      <c r="O16">
-        <v>150</v>
-      </c>
-      <c r="P16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="V16" t="s">
         <v>209</v>
-      </c>
-      <c r="R16" t="s">
-        <v>210</v>
-      </c>
-      <c r="S16" t="s">
-        <v>166</v>
-      </c>
-      <c r="T16" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" t="s">
-        <v>211</v>
-      </c>
-      <c r="V16" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3547,64 +3766,67 @@
       <c r="C17">
         <v>10</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
         <v>212</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="1">
         <v>600</v>
       </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
         <v>100</v>
       </c>
-      <c r="I17">
-        <v>1.9</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-      <c r="L17">
+      <c r="L17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N17" s="1">
+        <v>50</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17">
+        <v>150</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>166</v>
+      </c>
+      <c r="R17" t="s">
+        <v>213</v>
+      </c>
+      <c r="S17" t="s">
+        <v>206</v>
+      </c>
+      <c r="T17">
         <v>600</v>
       </c>
-      <c r="M17">
-        <v>50</v>
-      </c>
-      <c r="N17" t="s">
-        <v>162</v>
-      </c>
-      <c r="O17">
-        <v>150</v>
-      </c>
-      <c r="P17" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17" t="s">
         <v>209</v>
-      </c>
-      <c r="R17" t="s">
-        <v>210</v>
-      </c>
-      <c r="S17" t="s">
-        <v>166</v>
-      </c>
-      <c r="T17" t="s">
-        <v>98</v>
-      </c>
-      <c r="U17" t="s">
-        <v>213</v>
-      </c>
-      <c r="V17" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3612,59 +3834,62 @@
       <c r="C18">
         <v>10</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
         <v>214</v>
       </c>
-      <c r="F18">
+      <c r="G18" s="1">
         <v>600</v>
       </c>
-      <c r="G18">
+      <c r="H18" s="1">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="I18" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J18" s="1">
+        <v>25</v>
+      </c>
+      <c r="K18" s="1">
         <v>170</v>
       </c>
-      <c r="I18">
-        <v>1.9</v>
-      </c>
-      <c r="J18">
+      <c r="L18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N18" s="1">
+        <v>70</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18">
+        <v>150</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>166</v>
+      </c>
+      <c r="R18" t="s">
+        <v>215</v>
+      </c>
+      <c r="S18" t="s">
+        <v>206</v>
+      </c>
+      <c r="T18">
+        <v>600</v>
+      </c>
+      <c r="U18">
         <v>20</v>
       </c>
-      <c r="K18">
-        <v>25</v>
-      </c>
-      <c r="L18">
-        <v>600</v>
-      </c>
-      <c r="M18">
-        <v>70</v>
-      </c>
-      <c r="N18" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18">
-        <v>150</v>
-      </c>
-      <c r="P18" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="V18" t="s">
         <v>209</v>
-      </c>
-      <c r="R18" t="s">
-        <v>210</v>
-      </c>
-      <c r="S18" t="s">
-        <v>166</v>
-      </c>
-      <c r="T18" t="s">
-        <v>99</v>
-      </c>
-      <c r="U18" t="s">
-        <v>215</v>
-      </c>
-      <c r="V18" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3677,59 +3902,62 @@
       <c r="C19">
         <v>10</v>
       </c>
+      <c r="D19" t="s">
+        <v>398</v>
+      </c>
       <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
         <v>214</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>600</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20</v>
-      </c>
-      <c r="H19">
-        <v>160</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s">
+        <v>210</v>
+      </c>
+      <c r="N19">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19">
+        <v>150</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>166</v>
+      </c>
+      <c r="R19" t="s">
+        <v>216</v>
+      </c>
+      <c r="S19" t="s">
+        <v>206</v>
+      </c>
+      <c r="T19">
+        <v>600</v>
+      </c>
+      <c r="U19">
         <v>20</v>
       </c>
-      <c r="K19">
-        <v>25</v>
-      </c>
-      <c r="L19">
-        <v>600</v>
-      </c>
-      <c r="M19">
-        <v>35</v>
-      </c>
-      <c r="N19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19">
-        <v>150</v>
-      </c>
-      <c r="P19" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="V19" t="s">
         <v>209</v>
-      </c>
-      <c r="R19" t="s">
-        <v>210</v>
-      </c>
-      <c r="S19" t="s">
-        <v>166</v>
-      </c>
-      <c r="T19" t="s">
-        <v>100</v>
-      </c>
-      <c r="U19" t="s">
-        <v>216</v>
-      </c>
-      <c r="V19" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3746,58 +3974,58 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
         <v>217</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>600</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>30</v>
-      </c>
-      <c r="H20">
-        <v>300</v>
       </c>
       <c r="I20">
         <v>1.7</v>
       </c>
       <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="s">
+        <v>219</v>
+      </c>
+      <c r="N20">
+        <v>95</v>
+      </c>
+      <c r="O20" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20">
+        <v>150</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>166</v>
+      </c>
+      <c r="R20" t="s">
+        <v>220</v>
+      </c>
+      <c r="S20" t="s">
+        <v>206</v>
+      </c>
+      <c r="T20">
+        <v>600</v>
+      </c>
+      <c r="U20">
         <v>30</v>
       </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-      <c r="L20">
-        <v>600</v>
-      </c>
-      <c r="M20">
-        <v>95</v>
-      </c>
-      <c r="N20" t="s">
-        <v>162</v>
-      </c>
-      <c r="O20">
-        <v>150</v>
-      </c>
-      <c r="P20" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="V20" t="s">
         <v>218</v>
-      </c>
-      <c r="R20" t="s">
-        <v>219</v>
-      </c>
-      <c r="S20" t="s">
-        <v>166</v>
-      </c>
-      <c r="T20" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" t="s">
-        <v>220</v>
-      </c>
-      <c r="V20" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -3810,59 +4038,62 @@
       <c r="C21">
         <v>12</v>
       </c>
+      <c r="D21" t="s">
+        <v>398</v>
+      </c>
       <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
         <v>221</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>600</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3</v>
-      </c>
-      <c r="H21">
-        <v>40</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" t="s">
+        <v>224</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21">
+        <v>150</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R21" t="s">
+        <v>225</v>
+      </c>
+      <c r="S21" t="s">
+        <v>226</v>
+      </c>
+      <c r="T21">
+        <v>600</v>
+      </c>
+      <c r="U21">
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>25</v>
-      </c>
-      <c r="L21">
-        <v>600</v>
-      </c>
-      <c r="M21">
-        <v>20</v>
-      </c>
-      <c r="N21" t="s">
-        <v>162</v>
-      </c>
-      <c r="O21">
-        <v>150</v>
-      </c>
-      <c r="P21" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="V21" t="s">
         <v>223</v>
-      </c>
-      <c r="R21" t="s">
-        <v>224</v>
-      </c>
-      <c r="S21" t="s">
-        <v>166</v>
-      </c>
-      <c r="T21" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21" t="s">
-        <v>225</v>
-      </c>
-      <c r="V21" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -3879,63 +4110,63 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
         <v>227</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>600</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>5</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>60</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="s">
+        <v>224</v>
+      </c>
+      <c r="N22">
+        <v>25</v>
+      </c>
+      <c r="O22" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22">
+        <v>150</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>166</v>
+      </c>
+      <c r="R22" t="s">
+        <v>228</v>
+      </c>
+      <c r="S22" t="s">
+        <v>226</v>
+      </c>
+      <c r="T22">
+        <v>600</v>
+      </c>
+      <c r="U22">
         <v>5</v>
       </c>
-      <c r="K22">
-        <v>25</v>
-      </c>
-      <c r="L22">
-        <v>600</v>
-      </c>
-      <c r="M22">
-        <v>25</v>
-      </c>
-      <c r="N22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O22">
-        <v>150</v>
-      </c>
-      <c r="P22" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="V22" t="s">
         <v>223</v>
-      </c>
-      <c r="R22" t="s">
-        <v>224</v>
-      </c>
-      <c r="S22" t="s">
-        <v>166</v>
-      </c>
-      <c r="T22" t="s">
-        <v>103</v>
-      </c>
-      <c r="U22" t="s">
-        <v>228</v>
-      </c>
-      <c r="V22" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>404</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3943,59 +4174,62 @@
       <c r="C23">
         <v>12</v>
       </c>
+      <c r="D23" t="s">
+        <v>398</v>
+      </c>
       <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
         <v>229</v>
       </c>
-      <c r="F23">
+      <c r="G23" s="1">
         <v>600</v>
       </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>25</v>
+      </c>
+      <c r="K23" s="1">
         <v>120</v>
       </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23">
+      <c r="L23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N23" s="1">
         <v>25</v>
       </c>
-      <c r="L23">
+      <c r="O23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23">
+        <v>150</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>166</v>
+      </c>
+      <c r="R23" t="s">
+        <v>230</v>
+      </c>
+      <c r="S23" t="s">
+        <v>226</v>
+      </c>
+      <c r="T23">
         <v>600</v>
       </c>
-      <c r="M23">
-        <v>25</v>
-      </c>
-      <c r="N23" t="s">
-        <v>162</v>
-      </c>
-      <c r="O23">
-        <v>150</v>
-      </c>
-      <c r="P23" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23" t="s">
         <v>223</v>
-      </c>
-      <c r="R23" t="s">
-        <v>224</v>
-      </c>
-      <c r="S23" t="s">
-        <v>166</v>
-      </c>
-      <c r="T23" t="s">
-        <v>104</v>
-      </c>
-      <c r="U23" t="s">
-        <v>230</v>
-      </c>
-      <c r="V23" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -4008,59 +4242,62 @@
       <c r="C24">
         <v>12</v>
       </c>
+      <c r="D24" t="s">
+        <v>398</v>
+      </c>
       <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
         <v>231</v>
       </c>
-      <c r="F24">
+      <c r="G24" s="1">
         <v>600</v>
       </c>
-      <c r="G24">
+      <c r="H24" s="1">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>25</v>
+      </c>
+      <c r="K24" s="1">
         <v>180</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
+      <c r="L24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N24" s="1">
+        <v>35</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24">
+        <v>150</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>166</v>
+      </c>
+      <c r="R24" t="s">
+        <v>232</v>
+      </c>
+      <c r="S24" t="s">
+        <v>226</v>
+      </c>
+      <c r="T24">
+        <v>600</v>
+      </c>
+      <c r="U24">
         <v>20</v>
       </c>
-      <c r="K24">
-        <v>25</v>
-      </c>
-      <c r="L24">
-        <v>600</v>
-      </c>
-      <c r="M24">
-        <v>35</v>
-      </c>
-      <c r="N24" t="s">
-        <v>162</v>
-      </c>
-      <c r="O24">
-        <v>150</v>
-      </c>
-      <c r="P24" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="V24" t="s">
         <v>223</v>
-      </c>
-      <c r="R24" t="s">
-        <v>224</v>
-      </c>
-      <c r="S24" t="s">
-        <v>166</v>
-      </c>
-      <c r="T24" t="s">
-        <v>105</v>
-      </c>
-      <c r="U24" t="s">
-        <v>232</v>
-      </c>
-      <c r="V24" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -4077,58 +4314,58 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
         <v>221</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>600</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3</v>
-      </c>
-      <c r="H25">
-        <v>90</v>
       </c>
       <c r="I25">
         <v>1.45</v>
       </c>
       <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="s">
+        <v>224</v>
+      </c>
+      <c r="N25">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25">
+        <v>150</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>166</v>
+      </c>
+      <c r="R25" t="s">
+        <v>234</v>
+      </c>
+      <c r="S25" t="s">
+        <v>226</v>
+      </c>
+      <c r="T25">
+        <v>600</v>
+      </c>
+      <c r="U25">
         <v>3</v>
       </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>600</v>
-      </c>
-      <c r="M25">
-        <v>80</v>
-      </c>
-      <c r="N25" t="s">
-        <v>162</v>
-      </c>
-      <c r="O25">
-        <v>150</v>
-      </c>
-      <c r="P25" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="V25" t="s">
         <v>233</v>
-      </c>
-      <c r="R25" t="s">
-        <v>224</v>
-      </c>
-      <c r="S25" t="s">
-        <v>166</v>
-      </c>
-      <c r="T25" t="s">
-        <v>106</v>
-      </c>
-      <c r="U25" t="s">
-        <v>234</v>
-      </c>
-      <c r="V25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -4145,58 +4382,58 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
         <v>235</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>400</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
       </c>
       <c r="I26">
         <v>1.25</v>
       </c>
       <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="s">
+        <v>224</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26">
+        <v>150</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>166</v>
+      </c>
+      <c r="R26" t="s">
+        <v>236</v>
+      </c>
+      <c r="S26" t="s">
+        <v>237</v>
+      </c>
+      <c r="T26">
+        <v>400</v>
+      </c>
+      <c r="U26">
         <v>5</v>
       </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>400</v>
-      </c>
-      <c r="M26">
-        <v>30</v>
-      </c>
-      <c r="N26" t="s">
-        <v>162</v>
-      </c>
-      <c r="O26">
-        <v>150</v>
-      </c>
-      <c r="P26" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="V26" t="s">
         <v>233</v>
-      </c>
-      <c r="R26" t="s">
-        <v>224</v>
-      </c>
-      <c r="S26" t="s">
-        <v>166</v>
-      </c>
-      <c r="T26" t="s">
-        <v>107</v>
-      </c>
-      <c r="U26" t="s">
-        <v>236</v>
-      </c>
-      <c r="V26" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -4210,63 +4447,63 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
         <v>227</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>600</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5</v>
-      </c>
-      <c r="H27">
-        <v>120</v>
       </c>
       <c r="I27">
         <v>1.5</v>
       </c>
       <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>120</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N27">
+        <v>85</v>
+      </c>
+      <c r="O27" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27">
+        <v>150</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>166</v>
+      </c>
+      <c r="R27" t="s">
+        <v>238</v>
+      </c>
+      <c r="S27" t="s">
+        <v>226</v>
+      </c>
+      <c r="T27">
+        <v>600</v>
+      </c>
+      <c r="U27">
         <v>5</v>
       </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>600</v>
-      </c>
-      <c r="M27">
-        <v>85</v>
-      </c>
-      <c r="N27" t="s">
-        <v>162</v>
-      </c>
-      <c r="O27">
-        <v>150</v>
-      </c>
-      <c r="P27" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="V27" t="s">
         <v>233</v>
-      </c>
-      <c r="R27" t="s">
-        <v>224</v>
-      </c>
-      <c r="S27" t="s">
-        <v>166</v>
-      </c>
-      <c r="T27" t="s">
-        <v>108</v>
-      </c>
-      <c r="U27" t="s">
-        <v>238</v>
-      </c>
-      <c r="V27" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>389</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -4274,64 +4511,67 @@
       <c r="C28">
         <v>16</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
       <c r="E28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" t="s">
         <v>239</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="1">
         <v>600</v>
       </c>
-      <c r="G28">
+      <c r="H28" s="1">
         <v>8</v>
       </c>
-      <c r="H28">
+      <c r="I28" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="J28" s="1">
+        <v>50</v>
+      </c>
+      <c r="K28" s="1">
         <v>60</v>
       </c>
-      <c r="I28">
-        <v>3.6</v>
-      </c>
-      <c r="J28">
+      <c r="L28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N28" s="1">
+        <v>25</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28">
+        <v>150</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" t="s">
+        <v>241</v>
+      </c>
+      <c r="S28" t="s">
+        <v>226</v>
+      </c>
+      <c r="T28">
+        <v>600</v>
+      </c>
+      <c r="U28">
         <v>8</v>
       </c>
-      <c r="K28">
-        <v>50</v>
-      </c>
-      <c r="L28">
-        <v>600</v>
-      </c>
-      <c r="M28">
-        <v>25</v>
-      </c>
-      <c r="N28" t="s">
-        <v>162</v>
-      </c>
-      <c r="O28">
-        <v>150</v>
-      </c>
-      <c r="P28" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="V28" t="s">
         <v>233</v>
-      </c>
-      <c r="R28" t="s">
-        <v>224</v>
-      </c>
-      <c r="S28" t="s">
-        <v>166</v>
-      </c>
-      <c r="T28" t="s">
-        <v>240</v>
-      </c>
-      <c r="U28" t="s">
-        <v>241</v>
-      </c>
-      <c r="V28" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -4339,59 +4579,62 @@
       <c r="C29">
         <v>16</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
         <v>239</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="1">
         <v>600</v>
       </c>
-      <c r="G29">
+      <c r="H29" s="1">
         <v>8</v>
       </c>
-      <c r="H29">
-        <v>150</v>
-      </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>1.5</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
+        <v>10</v>
+      </c>
+      <c r="K29" s="1">
+        <v>150</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N29" s="1">
+        <v>90</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29">
+        <v>150</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>166</v>
+      </c>
+      <c r="R29" t="s">
+        <v>242</v>
+      </c>
+      <c r="S29" t="s">
+        <v>226</v>
+      </c>
+      <c r="T29">
+        <v>600</v>
+      </c>
+      <c r="U29">
         <v>8</v>
       </c>
-      <c r="K29">
-        <v>10</v>
-      </c>
-      <c r="L29">
-        <v>600</v>
-      </c>
-      <c r="M29">
-        <v>90</v>
-      </c>
-      <c r="N29" t="s">
-        <v>162</v>
-      </c>
-      <c r="O29">
-        <v>150</v>
-      </c>
-      <c r="P29" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="V29" t="s">
         <v>233</v>
-      </c>
-      <c r="R29" t="s">
-        <v>224</v>
-      </c>
-      <c r="S29" t="s">
-        <v>166</v>
-      </c>
-      <c r="T29" t="s">
-        <v>109</v>
-      </c>
-      <c r="U29" t="s">
-        <v>242</v>
-      </c>
-      <c r="V29" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -4405,16 +4648,16 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
         <v>229</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>600</v>
       </c>
-      <c r="G30">
-        <v>10</v>
-      </c>
       <c r="H30">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>1.5</v>
@@ -4423,40 +4666,40 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>10</v>
-      </c>
-      <c r="L30">
+        <v>180</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="s">
+        <v>224</v>
+      </c>
+      <c r="N30">
+        <v>95</v>
+      </c>
+      <c r="O30" t="s">
+        <v>162</v>
+      </c>
+      <c r="P30">
+        <v>150</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>166</v>
+      </c>
+      <c r="R30" t="s">
+        <v>243</v>
+      </c>
+      <c r="S30" t="s">
+        <v>226</v>
+      </c>
+      <c r="T30">
         <v>600</v>
       </c>
-      <c r="M30">
-        <v>95</v>
-      </c>
-      <c r="N30" t="s">
-        <v>162</v>
-      </c>
-      <c r="O30">
-        <v>150</v>
-      </c>
-      <c r="P30" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="U30">
+        <v>10</v>
+      </c>
+      <c r="V30" t="s">
         <v>233</v>
-      </c>
-      <c r="R30" t="s">
-        <v>224</v>
-      </c>
-      <c r="S30" t="s">
-        <v>166</v>
-      </c>
-      <c r="T30" t="s">
-        <v>110</v>
-      </c>
-      <c r="U30" t="s">
-        <v>243</v>
-      </c>
-      <c r="V30" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -4473,58 +4716,58 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" t="s">
         <v>244</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>200</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5</v>
-      </c>
-      <c r="H31">
-        <v>90</v>
       </c>
       <c r="I31">
         <v>0.96</v>
       </c>
       <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" t="s">
+        <v>224</v>
+      </c>
+      <c r="N31">
+        <v>25</v>
+      </c>
+      <c r="O31" t="s">
+        <v>162</v>
+      </c>
+      <c r="P31">
+        <v>150</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>166</v>
+      </c>
+      <c r="R31" t="s">
+        <v>247</v>
+      </c>
+      <c r="S31" t="s">
+        <v>248</v>
+      </c>
+      <c r="T31">
+        <v>200</v>
+      </c>
+      <c r="U31">
         <v>5</v>
       </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>200</v>
-      </c>
-      <c r="M31">
-        <v>25</v>
-      </c>
-      <c r="N31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O31">
-        <v>150</v>
-      </c>
-      <c r="P31" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="V31" t="s">
         <v>245</v>
-      </c>
-      <c r="R31" t="s">
-        <v>224</v>
-      </c>
-      <c r="S31" t="s">
-        <v>166</v>
-      </c>
-      <c r="T31" t="s">
-        <v>246</v>
-      </c>
-      <c r="U31" t="s">
-        <v>247</v>
-      </c>
-      <c r="V31" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -4537,17 +4780,20 @@
       <c r="C32">
         <v>17</v>
       </c>
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
       <c r="E32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" t="s">
         <v>249</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>200</v>
       </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
       <c r="H32">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <v>0.96</v>
@@ -4556,45 +4802,45 @@
         <v>10</v>
       </c>
       <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
         <v>200</v>
       </c>
-      <c r="M32">
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" t="s">
+        <v>224</v>
+      </c>
+      <c r="N32">
         <v>25</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>162</v>
       </c>
-      <c r="O32">
-        <v>150</v>
-      </c>
-      <c r="P32" t="s">
-        <v>222</v>
+      <c r="P32">
+        <v>150</v>
       </c>
       <c r="Q32" t="s">
+        <v>166</v>
+      </c>
+      <c r="R32" t="s">
+        <v>251</v>
+      </c>
+      <c r="S32" t="s">
+        <v>248</v>
+      </c>
+      <c r="T32">
+        <v>200</v>
+      </c>
+      <c r="U32">
+        <v>10</v>
+      </c>
+      <c r="V32" t="s">
         <v>245</v>
-      </c>
-      <c r="R32" t="s">
-        <v>224</v>
-      </c>
-      <c r="S32" t="s">
-        <v>166</v>
-      </c>
-      <c r="T32" t="s">
-        <v>250</v>
-      </c>
-      <c r="U32" t="s">
-        <v>251</v>
-      </c>
-      <c r="V32" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>391</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -4602,64 +4848,67 @@
       <c r="C33">
         <v>18</v>
       </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
       <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
         <v>231</v>
       </c>
-      <c r="F33">
+      <c r="G33" s="1">
         <v>600</v>
       </c>
-      <c r="G33">
+      <c r="H33" s="1">
         <v>20</v>
       </c>
-      <c r="H33">
+      <c r="I33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1">
         <v>300</v>
       </c>
-      <c r="I33">
-        <v>1.5</v>
-      </c>
-      <c r="J33">
+      <c r="L33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N33" s="1">
+        <v>95</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P33">
+        <v>150</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>166</v>
+      </c>
+      <c r="R33" t="s">
+        <v>254</v>
+      </c>
+      <c r="S33" t="s">
+        <v>255</v>
+      </c>
+      <c r="T33">
+        <v>600</v>
+      </c>
+      <c r="U33">
         <v>20</v>
       </c>
-      <c r="K33">
-        <v>10</v>
-      </c>
-      <c r="L33">
-        <v>600</v>
-      </c>
-      <c r="M33">
-        <v>95</v>
-      </c>
-      <c r="N33" t="s">
-        <v>162</v>
-      </c>
-      <c r="O33">
-        <v>150</v>
-      </c>
-      <c r="P33" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="V33" t="s">
         <v>252</v>
-      </c>
-      <c r="R33" t="s">
-        <v>253</v>
-      </c>
-      <c r="S33" t="s">
-        <v>166</v>
-      </c>
-      <c r="T33" t="s">
-        <v>111</v>
-      </c>
-      <c r="U33" t="s">
-        <v>254</v>
-      </c>
-      <c r="V33" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -4667,64 +4916,67 @@
       <c r="C34">
         <v>18</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
         <v>256</v>
       </c>
-      <c r="F34">
+      <c r="G34" s="1">
         <v>600</v>
       </c>
-      <c r="G34">
+      <c r="H34" s="1">
         <v>30</v>
       </c>
-      <c r="H34">
+      <c r="I34" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
+      <c r="K34" s="1">
         <v>450</v>
       </c>
-      <c r="I34">
-        <v>1.5</v>
-      </c>
-      <c r="J34">
+      <c r="L34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N34" s="1">
+        <v>100</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P34">
+        <v>150</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>166</v>
+      </c>
+      <c r="R34" t="s">
+        <v>257</v>
+      </c>
+      <c r="S34" t="s">
+        <v>255</v>
+      </c>
+      <c r="T34">
+        <v>600</v>
+      </c>
+      <c r="U34">
         <v>30</v>
       </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <v>600</v>
-      </c>
-      <c r="M34">
-        <v>100</v>
-      </c>
-      <c r="N34" t="s">
-        <v>162</v>
-      </c>
-      <c r="O34">
-        <v>150</v>
-      </c>
-      <c r="P34" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="V34" t="s">
         <v>252</v>
-      </c>
-      <c r="R34" t="s">
-        <v>253</v>
-      </c>
-      <c r="S34" t="s">
-        <v>166</v>
-      </c>
-      <c r="T34" t="s">
-        <v>112</v>
-      </c>
-      <c r="U34" t="s">
-        <v>257</v>
-      </c>
-      <c r="V34" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>379</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -4732,64 +4984,67 @@
       <c r="C35">
         <v>19</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
         <v>256</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>600</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>30</v>
-      </c>
-      <c r="H35">
-        <v>600</v>
       </c>
       <c r="I35">
         <v>1.5</v>
       </c>
       <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>600</v>
+      </c>
+      <c r="L35" t="s">
+        <v>222</v>
+      </c>
+      <c r="M35" t="s">
+        <v>259</v>
+      </c>
+      <c r="N35">
+        <v>150</v>
+      </c>
+      <c r="O35" t="s">
+        <v>162</v>
+      </c>
+      <c r="P35">
+        <v>150</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>166</v>
+      </c>
+      <c r="R35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S35" t="s">
+        <v>261</v>
+      </c>
+      <c r="T35">
+        <v>600</v>
+      </c>
+      <c r="U35">
         <v>30</v>
       </c>
-      <c r="K35">
-        <v>25</v>
-      </c>
-      <c r="L35">
-        <v>600</v>
-      </c>
-      <c r="M35">
-        <v>150</v>
-      </c>
-      <c r="N35" t="s">
-        <v>162</v>
-      </c>
-      <c r="O35">
-        <v>150</v>
-      </c>
-      <c r="P35" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="V35" t="s">
         <v>258</v>
-      </c>
-      <c r="R35" t="s">
-        <v>259</v>
-      </c>
-      <c r="S35" t="s">
-        <v>166</v>
-      </c>
-      <c r="T35" t="s">
-        <v>113</v>
-      </c>
-      <c r="U35" t="s">
-        <v>260</v>
-      </c>
-      <c r="V35" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -4797,64 +5052,67 @@
       <c r="C36">
         <v>20</v>
       </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
       <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="F36">
+      <c r="G36" s="1">
         <v>600</v>
       </c>
-      <c r="G36">
+      <c r="H36" s="1">
         <v>0.8</v>
       </c>
-      <c r="H36">
+      <c r="I36" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1">
         <v>50</v>
       </c>
-      <c r="I36">
-        <v>1.3</v>
-      </c>
-      <c r="J36">
+      <c r="L36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N36" s="1">
+        <v>400</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P36">
+        <v>150</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>166</v>
+      </c>
+      <c r="R36" t="s">
+        <v>266</v>
+      </c>
+      <c r="S36" t="s">
+        <v>255</v>
+      </c>
+      <c r="T36">
+        <v>600</v>
+      </c>
+      <c r="U36">
         <v>0.8</v>
       </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-      <c r="L36">
-        <v>600</v>
-      </c>
-      <c r="M36">
-        <v>400</v>
-      </c>
-      <c r="N36" t="s">
-        <v>162</v>
-      </c>
-      <c r="O36">
-        <v>150</v>
-      </c>
-      <c r="P36" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="V36" t="s">
         <v>264</v>
-      </c>
-      <c r="R36" t="s">
-        <v>265</v>
-      </c>
-      <c r="S36" t="s">
-        <v>166</v>
-      </c>
-      <c r="T36" t="s">
-        <v>114</v>
-      </c>
-      <c r="U36" t="s">
-        <v>266</v>
-      </c>
-      <c r="V36" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -4862,64 +5120,67 @@
       <c r="C37">
         <v>20</v>
       </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
       <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
         <v>262</v>
       </c>
-      <c r="F37">
+      <c r="G37" s="1">
         <v>600</v>
       </c>
-      <c r="G37">
+      <c r="H37" s="1">
         <v>0.8</v>
       </c>
-      <c r="H37">
+      <c r="I37" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1">
         <v>35</v>
       </c>
-      <c r="I37">
-        <v>1.3</v>
-      </c>
-      <c r="J37">
+      <c r="L37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N37" s="1">
+        <v>75</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P37">
+        <v>150</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>166</v>
+      </c>
+      <c r="R37" t="s">
+        <v>267</v>
+      </c>
+      <c r="S37" t="s">
+        <v>255</v>
+      </c>
+      <c r="T37">
+        <v>600</v>
+      </c>
+      <c r="U37">
         <v>0.8</v>
       </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-      <c r="L37">
-        <v>600</v>
-      </c>
-      <c r="M37">
-        <v>75</v>
-      </c>
-      <c r="N37" t="s">
-        <v>162</v>
-      </c>
-      <c r="O37">
-        <v>150</v>
-      </c>
-      <c r="P37" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="V37" t="s">
         <v>264</v>
-      </c>
-      <c r="R37" t="s">
-        <v>265</v>
-      </c>
-      <c r="S37" t="s">
-        <v>166</v>
-      </c>
-      <c r="T37" t="s">
-        <v>115</v>
-      </c>
-      <c r="U37" t="s">
-        <v>267</v>
-      </c>
-      <c r="V37" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -4927,64 +5188,67 @@
       <c r="C38">
         <v>20</v>
       </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
       <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="F38">
+      <c r="G38" s="1">
         <v>200</v>
       </c>
-      <c r="G38">
+      <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="H38">
+      <c r="I38" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
         <v>25</v>
       </c>
-      <c r="I38">
-        <v>0.98</v>
-      </c>
-      <c r="J38">
+      <c r="L38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N38" s="1">
+        <v>35</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P38">
+        <v>150</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>166</v>
+      </c>
+      <c r="R38" t="s">
+        <v>269</v>
+      </c>
+      <c r="S38" t="s">
+        <v>248</v>
+      </c>
+      <c r="T38">
+        <v>200</v>
+      </c>
+      <c r="U38">
         <v>1</v>
       </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>200</v>
-      </c>
-      <c r="M38">
-        <v>35</v>
-      </c>
-      <c r="N38" t="s">
-        <v>162</v>
-      </c>
-      <c r="O38">
-        <v>150</v>
-      </c>
-      <c r="P38" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="V38" t="s">
         <v>264</v>
-      </c>
-      <c r="R38" t="s">
-        <v>265</v>
-      </c>
-      <c r="S38" t="s">
-        <v>166</v>
-      </c>
-      <c r="T38" t="s">
-        <v>116</v>
-      </c>
-      <c r="U38" t="s">
-        <v>269</v>
-      </c>
-      <c r="V38" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>401</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -4992,59 +5256,62 @@
       <c r="C39">
         <v>20</v>
       </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
       <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
         <v>270</v>
       </c>
-      <c r="F39">
+      <c r="G39" s="1">
         <v>400</v>
       </c>
-      <c r="G39">
+      <c r="H39" s="1">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="I39" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="J39" s="1">
+        <v>10</v>
+      </c>
+      <c r="K39" s="1">
         <v>50</v>
       </c>
-      <c r="I39">
-        <v>1.25</v>
-      </c>
-      <c r="J39">
+      <c r="L39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N39" s="1">
+        <v>25</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P39">
+        <v>150</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>166</v>
+      </c>
+      <c r="R39" t="s">
+        <v>271</v>
+      </c>
+      <c r="S39" t="s">
+        <v>248</v>
+      </c>
+      <c r="T39">
+        <v>400</v>
+      </c>
+      <c r="U39">
         <v>1</v>
       </c>
-      <c r="K39">
-        <v>10</v>
-      </c>
-      <c r="L39">
-        <v>400</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-      <c r="N39" t="s">
-        <v>162</v>
-      </c>
-      <c r="O39">
-        <v>150</v>
-      </c>
-      <c r="P39" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="V39" t="s">
         <v>264</v>
-      </c>
-      <c r="R39" t="s">
-        <v>265</v>
-      </c>
-      <c r="S39" t="s">
-        <v>166</v>
-      </c>
-      <c r="T39" t="s">
-        <v>117</v>
-      </c>
-      <c r="U39" t="s">
-        <v>271</v>
-      </c>
-      <c r="V39" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -5058,63 +5325,63 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s">
         <v>272</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1000</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1</v>
-      </c>
-      <c r="H40">
-        <v>30</v>
       </c>
       <c r="I40">
         <v>2.1</v>
       </c>
       <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>30</v>
+      </c>
+      <c r="L40" t="s">
+        <v>263</v>
+      </c>
+      <c r="M40" t="s">
+        <v>265</v>
+      </c>
+      <c r="N40">
+        <v>75</v>
+      </c>
+      <c r="O40" t="s">
+        <v>162</v>
+      </c>
+      <c r="P40">
+        <v>150</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>166</v>
+      </c>
+      <c r="R40" t="s">
+        <v>273</v>
+      </c>
+      <c r="S40" t="s">
+        <v>255</v>
+      </c>
+      <c r="T40">
+        <v>1000</v>
+      </c>
+      <c r="U40">
         <v>1</v>
       </c>
-      <c r="K40">
-        <v>10</v>
-      </c>
-      <c r="L40">
-        <v>1000</v>
-      </c>
-      <c r="M40">
-        <v>75</v>
-      </c>
-      <c r="N40" t="s">
-        <v>162</v>
-      </c>
-      <c r="O40">
-        <v>150</v>
-      </c>
-      <c r="P40" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="V40" t="s">
         <v>264</v>
-      </c>
-      <c r="R40" t="s">
-        <v>265</v>
-      </c>
-      <c r="S40" t="s">
-        <v>166</v>
-      </c>
-      <c r="T40" t="s">
-        <v>118</v>
-      </c>
-      <c r="U40" t="s">
-        <v>273</v>
-      </c>
-      <c r="V40" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>411</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -5122,64 +5389,67 @@
       <c r="C41">
         <v>23</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
         <v>274</v>
       </c>
-      <c r="F41">
+      <c r="G41" s="1">
         <v>200</v>
       </c>
-      <c r="G41">
+      <c r="H41" s="1">
         <v>1.5</v>
       </c>
-      <c r="H41">
+      <c r="I41" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J41" s="1">
+        <v>10</v>
+      </c>
+      <c r="K41" s="1">
         <v>40</v>
       </c>
-      <c r="I41">
-        <v>0.98</v>
-      </c>
-      <c r="J41">
+      <c r="L41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N41" s="1">
+        <v>35</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P41">
+        <v>150</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" t="s">
+        <v>278</v>
+      </c>
+      <c r="S41" t="s">
+        <v>248</v>
+      </c>
+      <c r="T41">
+        <v>200</v>
+      </c>
+      <c r="U41">
         <v>1.5</v>
       </c>
-      <c r="K41">
-        <v>10</v>
-      </c>
-      <c r="L41">
-        <v>200</v>
-      </c>
-      <c r="M41">
-        <v>35</v>
-      </c>
-      <c r="N41" t="s">
-        <v>275</v>
-      </c>
-      <c r="O41">
-        <v>150</v>
-      </c>
-      <c r="P41" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="V41" t="s">
         <v>276</v>
-      </c>
-      <c r="R41" t="s">
-        <v>277</v>
-      </c>
-      <c r="S41" t="s">
-        <v>166</v>
-      </c>
-      <c r="T41" t="s">
-        <v>119</v>
-      </c>
-      <c r="U41" t="s">
-        <v>278</v>
-      </c>
-      <c r="V41" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>412</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -5187,64 +5457,67 @@
       <c r="C42">
         <v>23</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
         <v>279</v>
       </c>
-      <c r="F42">
+      <c r="G42" s="1">
         <v>400</v>
       </c>
-      <c r="G42">
+      <c r="H42" s="1">
         <v>2</v>
       </c>
-      <c r="H42">
+      <c r="I42" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1">
         <v>80</v>
       </c>
-      <c r="I42">
-        <v>1.25</v>
-      </c>
-      <c r="J42">
+      <c r="L42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N42" s="1">
+        <v>35</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P42">
+        <v>150</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>166</v>
+      </c>
+      <c r="R42" t="s">
+        <v>280</v>
+      </c>
+      <c r="S42" t="s">
+        <v>248</v>
+      </c>
+      <c r="T42">
+        <v>400</v>
+      </c>
+      <c r="U42">
         <v>2</v>
       </c>
-      <c r="K42">
-        <v>10</v>
-      </c>
-      <c r="L42">
-        <v>400</v>
-      </c>
-      <c r="M42">
-        <v>35</v>
-      </c>
-      <c r="N42" t="s">
-        <v>162</v>
-      </c>
-      <c r="O42">
-        <v>150</v>
-      </c>
-      <c r="P42" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="V42" t="s">
         <v>276</v>
-      </c>
-      <c r="R42" t="s">
-        <v>277</v>
-      </c>
-      <c r="S42" t="s">
-        <v>166</v>
-      </c>
-      <c r="T42" t="s">
-        <v>120</v>
-      </c>
-      <c r="U42" t="s">
-        <v>280</v>
-      </c>
-      <c r="V42" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>419</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -5252,59 +5525,62 @@
       <c r="C43">
         <v>24</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" t="s">
         <v>274</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>200</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1.5</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
       </c>
       <c r="I43">
         <v>0.98</v>
       </c>
       <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>50</v>
+      </c>
+      <c r="L43" t="s">
+        <v>263</v>
+      </c>
+      <c r="M43" t="s">
+        <v>282</v>
+      </c>
+      <c r="N43">
+        <v>35</v>
+      </c>
+      <c r="O43" t="s">
+        <v>275</v>
+      </c>
+      <c r="P43">
+        <v>150</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>166</v>
+      </c>
+      <c r="R43" t="s">
+        <v>283</v>
+      </c>
+      <c r="S43" t="s">
+        <v>248</v>
+      </c>
+      <c r="T43">
+        <v>200</v>
+      </c>
+      <c r="U43">
         <v>1.5</v>
       </c>
-      <c r="K43">
-        <v>10</v>
-      </c>
-      <c r="L43">
-        <v>200</v>
-      </c>
-      <c r="M43">
-        <v>35</v>
-      </c>
-      <c r="N43" t="s">
-        <v>275</v>
-      </c>
-      <c r="O43">
-        <v>150</v>
-      </c>
-      <c r="P43" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="V43" t="s">
         <v>281</v>
-      </c>
-      <c r="R43" t="s">
-        <v>282</v>
-      </c>
-      <c r="S43" t="s">
-        <v>166</v>
-      </c>
-      <c r="T43" t="s">
-        <v>121</v>
-      </c>
-      <c r="U43" t="s">
-        <v>283</v>
-      </c>
-      <c r="V43" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -5318,63 +5594,63 @@
         <v>24</v>
       </c>
       <c r="E44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" t="s">
         <v>284</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>600</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>1.5</v>
-      </c>
-      <c r="H44">
-        <v>50</v>
       </c>
       <c r="I44">
         <v>1.5</v>
       </c>
       <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
+        <v>263</v>
+      </c>
+      <c r="M44" t="s">
+        <v>282</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+      <c r="O44" t="s">
+        <v>162</v>
+      </c>
+      <c r="P44">
+        <v>150</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>166</v>
+      </c>
+      <c r="R44" t="s">
+        <v>285</v>
+      </c>
+      <c r="S44" t="s">
+        <v>255</v>
+      </c>
+      <c r="T44">
+        <v>600</v>
+      </c>
+      <c r="U44">
         <v>1.5</v>
       </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-      <c r="L44">
-        <v>600</v>
-      </c>
-      <c r="M44">
-        <v>50</v>
-      </c>
-      <c r="N44" t="s">
-        <v>162</v>
-      </c>
-      <c r="O44">
-        <v>150</v>
-      </c>
-      <c r="P44" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="V44" t="s">
         <v>281</v>
-      </c>
-      <c r="R44" t="s">
-        <v>282</v>
-      </c>
-      <c r="S44" t="s">
-        <v>166</v>
-      </c>
-      <c r="T44" t="s">
-        <v>122</v>
-      </c>
-      <c r="U44" t="s">
-        <v>285</v>
-      </c>
-      <c r="V44" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>420</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -5382,59 +5658,62 @@
       <c r="C45">
         <v>24</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" t="s">
         <v>279</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>400</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2</v>
-      </c>
-      <c r="H45">
-        <v>100</v>
       </c>
       <c r="I45">
         <v>1.25</v>
       </c>
       <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45" t="s">
+        <v>263</v>
+      </c>
+      <c r="M45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N45">
+        <v>35</v>
+      </c>
+      <c r="O45" t="s">
+        <v>162</v>
+      </c>
+      <c r="P45">
+        <v>150</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>166</v>
+      </c>
+      <c r="R45" t="s">
+        <v>286</v>
+      </c>
+      <c r="S45" t="s">
+        <v>248</v>
+      </c>
+      <c r="T45">
+        <v>400</v>
+      </c>
+      <c r="U45">
         <v>2</v>
       </c>
-      <c r="K45">
-        <v>10</v>
-      </c>
-      <c r="L45">
-        <v>400</v>
-      </c>
-      <c r="M45">
-        <v>35</v>
-      </c>
-      <c r="N45" t="s">
-        <v>162</v>
-      </c>
-      <c r="O45">
-        <v>150</v>
-      </c>
-      <c r="P45" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="V45" t="s">
         <v>281</v>
-      </c>
-      <c r="R45" t="s">
-        <v>282</v>
-      </c>
-      <c r="S45" t="s">
-        <v>166</v>
-      </c>
-      <c r="T45" t="s">
-        <v>123</v>
-      </c>
-      <c r="U45" t="s">
-        <v>286</v>
-      </c>
-      <c r="V45" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -5451,63 +5730,63 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
         <v>287</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1000</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>2</v>
-      </c>
-      <c r="H46">
-        <v>65</v>
       </c>
       <c r="I46">
         <v>2.1</v>
       </c>
       <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
+        <v>263</v>
+      </c>
+      <c r="M46" t="s">
+        <v>282</v>
+      </c>
+      <c r="N46">
+        <v>75</v>
+      </c>
+      <c r="O46" t="s">
+        <v>162</v>
+      </c>
+      <c r="P46">
+        <v>150</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>166</v>
+      </c>
+      <c r="R46" t="s">
+        <v>288</v>
+      </c>
+      <c r="S46" t="s">
+        <v>255</v>
+      </c>
+      <c r="T46">
+        <v>1000</v>
+      </c>
+      <c r="U46">
         <v>2</v>
       </c>
-      <c r="K46">
-        <v>10</v>
-      </c>
-      <c r="L46">
-        <v>1000</v>
-      </c>
-      <c r="M46">
-        <v>75</v>
-      </c>
-      <c r="N46" t="s">
-        <v>162</v>
-      </c>
-      <c r="O46">
-        <v>150</v>
-      </c>
-      <c r="P46" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="V46" t="s">
         <v>281</v>
-      </c>
-      <c r="R46" t="s">
-        <v>282</v>
-      </c>
-      <c r="S46" t="s">
-        <v>166</v>
-      </c>
-      <c r="T46" t="s">
-        <v>124</v>
-      </c>
-      <c r="U46" t="s">
-        <v>288</v>
-      </c>
-      <c r="V46" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>413</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -5516,63 +5795,63 @@
         <v>29</v>
       </c>
       <c r="E47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s">
         <v>289</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>600</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="H47">
-        <v>60</v>
       </c>
       <c r="I47">
         <v>1.5</v>
       </c>
       <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>60</v>
+      </c>
+      <c r="L47" t="s">
+        <v>263</v>
+      </c>
+      <c r="M47" t="s">
+        <v>282</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+      <c r="O47" t="s">
+        <v>162</v>
+      </c>
+      <c r="P47">
+        <v>150</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>166</v>
+      </c>
+      <c r="R47" t="s">
+        <v>291</v>
+      </c>
+      <c r="S47" t="s">
+        <v>255</v>
+      </c>
+      <c r="T47">
+        <v>600</v>
+      </c>
+      <c r="U47">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K47">
-        <v>10</v>
-      </c>
-      <c r="L47">
-        <v>600</v>
-      </c>
-      <c r="M47">
-        <v>50</v>
-      </c>
-      <c r="N47" t="s">
-        <v>162</v>
-      </c>
-      <c r="O47">
-        <v>150</v>
-      </c>
-      <c r="P47" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="V47" t="s">
         <v>290</v>
-      </c>
-      <c r="R47" t="s">
-        <v>282</v>
-      </c>
-      <c r="S47" t="s">
-        <v>166</v>
-      </c>
-      <c r="T47" t="s">
-        <v>125</v>
-      </c>
-      <c r="U47" t="s">
-        <v>291</v>
-      </c>
-      <c r="V47" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>414</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -5580,59 +5859,62 @@
       <c r="C48">
         <v>29</v>
       </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s">
         <v>292</v>
       </c>
-      <c r="F48">
+      <c r="G48" s="1">
         <v>200</v>
       </c>
-      <c r="G48">
+      <c r="H48" s="1">
         <v>3</v>
       </c>
-      <c r="H48">
+      <c r="I48" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10</v>
+      </c>
+      <c r="K48" s="1">
         <v>60</v>
       </c>
-      <c r="I48">
-        <v>0.98</v>
-      </c>
-      <c r="J48">
+      <c r="L48" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N48" s="1">
+        <v>35</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P48">
+        <v>150</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>166</v>
+      </c>
+      <c r="R48" t="s">
+        <v>293</v>
+      </c>
+      <c r="S48" t="s">
+        <v>248</v>
+      </c>
+      <c r="T48">
+        <v>200</v>
+      </c>
+      <c r="U48">
         <v>2.1</v>
       </c>
-      <c r="K48">
-        <v>10</v>
-      </c>
-      <c r="L48">
-        <v>200</v>
-      </c>
-      <c r="M48">
-        <v>35</v>
-      </c>
-      <c r="N48" t="s">
-        <v>275</v>
-      </c>
-      <c r="O48">
-        <v>150</v>
-      </c>
-      <c r="P48" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="V48" t="s">
         <v>290</v>
-      </c>
-      <c r="R48" t="s">
-        <v>282</v>
-      </c>
-      <c r="S48" t="s">
-        <v>166</v>
-      </c>
-      <c r="T48" t="s">
-        <v>126</v>
-      </c>
-      <c r="U48" t="s">
-        <v>293</v>
-      </c>
-      <c r="V48" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -5645,64 +5927,67 @@
       <c r="C49">
         <v>29</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="E49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" t="s">
         <v>294</v>
       </c>
-      <c r="F49">
+      <c r="G49" s="1">
         <v>400</v>
       </c>
-      <c r="G49">
+      <c r="H49" s="1">
         <v>3</v>
       </c>
-      <c r="H49">
-        <v>150</v>
-      </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>1.25</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
+        <v>10</v>
+      </c>
+      <c r="K49" s="1">
+        <v>150</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N49" s="1">
+        <v>35</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P49">
+        <v>150</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>166</v>
+      </c>
+      <c r="R49" t="s">
+        <v>295</v>
+      </c>
+      <c r="S49" t="s">
+        <v>248</v>
+      </c>
+      <c r="T49">
+        <v>400</v>
+      </c>
+      <c r="U49">
         <v>3</v>
       </c>
-      <c r="K49">
-        <v>10</v>
-      </c>
-      <c r="L49">
-        <v>400</v>
-      </c>
-      <c r="M49">
-        <v>35</v>
-      </c>
-      <c r="N49" t="s">
-        <v>162</v>
-      </c>
-      <c r="O49">
-        <v>150</v>
-      </c>
-      <c r="P49" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="V49" t="s">
         <v>290</v>
-      </c>
-      <c r="R49" t="s">
-        <v>282</v>
-      </c>
-      <c r="S49" t="s">
-        <v>166</v>
-      </c>
-      <c r="T49" t="s">
-        <v>127</v>
-      </c>
-      <c r="U49" t="s">
-        <v>295</v>
-      </c>
-      <c r="V49" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>380</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -5710,64 +5995,67 @@
       <c r="C50">
         <v>30</v>
       </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
         <v>296</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>600</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>3</v>
-      </c>
-      <c r="H50">
-        <v>120</v>
       </c>
       <c r="I50">
         <v>1.3</v>
       </c>
       <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>120</v>
+      </c>
+      <c r="L50" t="s">
+        <v>263</v>
+      </c>
+      <c r="M50" t="s">
+        <v>282</v>
+      </c>
+      <c r="N50">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s">
+        <v>162</v>
+      </c>
+      <c r="P50">
+        <v>150</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>166</v>
+      </c>
+      <c r="R50" t="s">
+        <v>297</v>
+      </c>
+      <c r="S50" t="s">
+        <v>255</v>
+      </c>
+      <c r="T50">
+        <v>600</v>
+      </c>
+      <c r="U50">
         <v>3</v>
       </c>
-      <c r="K50">
-        <v>10</v>
-      </c>
-      <c r="L50">
-        <v>600</v>
-      </c>
-      <c r="M50">
-        <v>100</v>
-      </c>
-      <c r="N50" t="s">
-        <v>162</v>
-      </c>
-      <c r="O50">
-        <v>150</v>
-      </c>
-      <c r="P50" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="V50" t="s">
         <v>290</v>
-      </c>
-      <c r="R50" t="s">
-        <v>282</v>
-      </c>
-      <c r="S50" t="s">
-        <v>166</v>
-      </c>
-      <c r="T50" t="s">
-        <v>128</v>
-      </c>
-      <c r="U50" t="s">
-        <v>297</v>
-      </c>
-      <c r="V50" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>418</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -5775,59 +6063,62 @@
       <c r="C51">
         <v>31</v>
       </c>
+      <c r="D51" t="s">
+        <v>398</v>
+      </c>
       <c r="E51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
         <v>298</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>200</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>5</v>
-      </c>
-      <c r="H51">
-        <v>50</v>
       </c>
       <c r="I51">
         <v>0.98</v>
       </c>
       <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>163</v>
+      </c>
+      <c r="M51" t="s">
+        <v>199</v>
+      </c>
+      <c r="N51">
+        <v>35</v>
+      </c>
+      <c r="O51" t="s">
+        <v>162</v>
+      </c>
+      <c r="P51">
+        <v>150</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R51" t="s">
+        <v>299</v>
+      </c>
+      <c r="S51" t="s">
+        <v>201</v>
+      </c>
+      <c r="T51">
+        <v>200</v>
+      </c>
+      <c r="U51">
         <v>2.5</v>
       </c>
-      <c r="K51">
-        <v>10</v>
-      </c>
-      <c r="L51">
-        <v>200</v>
-      </c>
-      <c r="M51">
-        <v>35</v>
-      </c>
-      <c r="N51" t="s">
-        <v>162</v>
-      </c>
-      <c r="O51">
-        <v>150</v>
-      </c>
-      <c r="P51" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="V51" t="s">
         <v>198</v>
-      </c>
-      <c r="R51" t="s">
-        <v>199</v>
-      </c>
-      <c r="S51" t="s">
-        <v>166</v>
-      </c>
-      <c r="T51" t="s">
-        <v>129</v>
-      </c>
-      <c r="U51" t="s">
-        <v>299</v>
-      </c>
-      <c r="V51" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -5841,58 +6132,58 @@
         <v>31</v>
       </c>
       <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
         <v>300</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>400</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>5</v>
-      </c>
-      <c r="H52">
-        <v>50</v>
       </c>
       <c r="I52">
         <v>1.3</v>
       </c>
       <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52" t="s">
+        <v>163</v>
+      </c>
+      <c r="M52" t="s">
+        <v>199</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52" t="s">
+        <v>162</v>
+      </c>
+      <c r="P52">
+        <v>150</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>166</v>
+      </c>
+      <c r="R52" t="s">
+        <v>301</v>
+      </c>
+      <c r="S52" t="s">
+        <v>201</v>
+      </c>
+      <c r="T52">
+        <v>400</v>
+      </c>
+      <c r="U52">
         <v>2.5</v>
       </c>
-      <c r="K52">
-        <v>10</v>
-      </c>
-      <c r="L52">
-        <v>400</v>
-      </c>
-      <c r="M52">
-        <v>50</v>
-      </c>
-      <c r="N52" t="s">
-        <v>162</v>
-      </c>
-      <c r="O52">
-        <v>150</v>
-      </c>
-      <c r="P52" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q52" t="s">
+      <c r="V52" t="s">
         <v>198</v>
-      </c>
-      <c r="R52" t="s">
-        <v>199</v>
-      </c>
-      <c r="S52" t="s">
-        <v>166</v>
-      </c>
-      <c r="T52" t="s">
-        <v>130</v>
-      </c>
-      <c r="U52" t="s">
-        <v>301</v>
-      </c>
-      <c r="V52" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -5905,59 +6196,62 @@
       <c r="C53">
         <v>32</v>
       </c>
+      <c r="D53" t="s">
+        <v>398</v>
+      </c>
       <c r="E53" t="s">
+        <v>303</v>
+      </c>
+      <c r="F53" t="s">
         <v>302</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>200</v>
       </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
       <c r="H53">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I53">
         <v>0.98</v>
       </c>
       <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>80</v>
+      </c>
+      <c r="L53" t="s">
+        <v>163</v>
+      </c>
+      <c r="M53" t="s">
+        <v>210</v>
+      </c>
+      <c r="N53">
+        <v>35</v>
+      </c>
+      <c r="O53" t="s">
+        <v>275</v>
+      </c>
+      <c r="P53">
+        <v>150</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>166</v>
+      </c>
+      <c r="R53" t="s">
+        <v>304</v>
+      </c>
+      <c r="S53" t="s">
+        <v>201</v>
+      </c>
+      <c r="T53">
+        <v>200</v>
+      </c>
+      <c r="U53">
         <v>5</v>
       </c>
-      <c r="K53">
-        <v>10</v>
-      </c>
-      <c r="L53">
-        <v>200</v>
-      </c>
-      <c r="M53">
-        <v>35</v>
-      </c>
-      <c r="N53" t="s">
-        <v>275</v>
-      </c>
-      <c r="O53">
-        <v>150</v>
-      </c>
-      <c r="P53" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="V53" t="s">
         <v>209</v>
-      </c>
-      <c r="R53" t="s">
-        <v>210</v>
-      </c>
-      <c r="S53" t="s">
-        <v>166</v>
-      </c>
-      <c r="T53" t="s">
-        <v>303</v>
-      </c>
-      <c r="U53" t="s">
-        <v>304</v>
-      </c>
-      <c r="V53" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -5970,59 +6264,62 @@
       <c r="C54">
         <v>32</v>
       </c>
+      <c r="D54" t="s">
+        <v>398</v>
+      </c>
       <c r="E54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" t="s">
         <v>305</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>300</v>
       </c>
-      <c r="G54">
-        <v>10</v>
-      </c>
       <c r="H54">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I54">
         <v>1.3</v>
       </c>
       <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>80</v>
+      </c>
+      <c r="L54" t="s">
+        <v>163</v>
+      </c>
+      <c r="M54" t="s">
+        <v>210</v>
+      </c>
+      <c r="N54">
+        <v>30</v>
+      </c>
+      <c r="O54" t="s">
+        <v>162</v>
+      </c>
+      <c r="P54">
+        <v>150</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>166</v>
+      </c>
+      <c r="R54" t="s">
+        <v>306</v>
+      </c>
+      <c r="S54" t="s">
+        <v>201</v>
+      </c>
+      <c r="T54">
+        <v>300</v>
+      </c>
+      <c r="U54">
         <v>5</v>
       </c>
-      <c r="K54">
-        <v>25</v>
-      </c>
-      <c r="L54">
-        <v>300</v>
-      </c>
-      <c r="M54">
-        <v>30</v>
-      </c>
-      <c r="N54" t="s">
-        <v>162</v>
-      </c>
-      <c r="O54">
-        <v>150</v>
-      </c>
-      <c r="P54" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="V54" t="s">
         <v>209</v>
-      </c>
-      <c r="R54" t="s">
-        <v>210</v>
-      </c>
-      <c r="S54" t="s">
-        <v>166</v>
-      </c>
-      <c r="T54" t="s">
-        <v>131</v>
-      </c>
-      <c r="U54" t="s">
-        <v>306</v>
-      </c>
-      <c r="V54" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -6035,17 +6332,20 @@
       <c r="C55">
         <v>32</v>
       </c>
+      <c r="D55" t="s">
+        <v>398</v>
+      </c>
       <c r="E55" t="s">
+        <v>308</v>
+      </c>
+      <c r="F55" t="s">
         <v>307</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>200</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>20</v>
-      </c>
-      <c r="H55">
-        <v>180</v>
       </c>
       <c r="I55">
         <v>0.96</v>
@@ -6054,40 +6354,40 @@
         <v>10</v>
       </c>
       <c r="K55">
-        <v>10</v>
-      </c>
-      <c r="L55">
+        <v>180</v>
+      </c>
+      <c r="L55" t="s">
+        <v>163</v>
+      </c>
+      <c r="M55" t="s">
+        <v>210</v>
+      </c>
+      <c r="N55">
+        <v>25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P55">
+        <v>150</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>166</v>
+      </c>
+      <c r="R55" t="s">
+        <v>309</v>
+      </c>
+      <c r="S55" t="s">
+        <v>201</v>
+      </c>
+      <c r="T55">
         <v>200</v>
       </c>
-      <c r="M55">
-        <v>25</v>
-      </c>
-      <c r="N55" t="s">
-        <v>162</v>
-      </c>
-      <c r="O55">
-        <v>150</v>
-      </c>
-      <c r="P55" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="U55">
+        <v>10</v>
+      </c>
+      <c r="V55" t="s">
         <v>209</v>
-      </c>
-      <c r="R55" t="s">
-        <v>210</v>
-      </c>
-      <c r="S55" t="s">
-        <v>166</v>
-      </c>
-      <c r="T55" t="s">
-        <v>308</v>
-      </c>
-      <c r="U55" t="s">
-        <v>309</v>
-      </c>
-      <c r="V55" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -6100,59 +6400,62 @@
       <c r="C56">
         <v>32</v>
       </c>
+      <c r="D56" t="s">
+        <v>398</v>
+      </c>
       <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
         <v>310</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>300</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>20</v>
-      </c>
-      <c r="H56">
-        <v>180</v>
       </c>
       <c r="I56">
         <v>1.3</v>
       </c>
       <c r="J56">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K56">
-        <v>25</v>
-      </c>
-      <c r="L56">
+        <v>180</v>
+      </c>
+      <c r="L56" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" t="s">
+        <v>210</v>
+      </c>
+      <c r="N56">
+        <v>30</v>
+      </c>
+      <c r="O56" t="s">
+        <v>162</v>
+      </c>
+      <c r="P56">
+        <v>150</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>166</v>
+      </c>
+      <c r="R56" t="s">
+        <v>311</v>
+      </c>
+      <c r="S56" t="s">
+        <v>201</v>
+      </c>
+      <c r="T56">
         <v>300</v>
       </c>
-      <c r="M56">
-        <v>30</v>
-      </c>
-      <c r="N56" t="s">
-        <v>162</v>
-      </c>
-      <c r="O56">
-        <v>150</v>
-      </c>
-      <c r="P56" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="U56">
+        <v>10</v>
+      </c>
+      <c r="V56" t="s">
         <v>209</v>
-      </c>
-      <c r="R56" t="s">
-        <v>210</v>
-      </c>
-      <c r="S56" t="s">
-        <v>166</v>
-      </c>
-      <c r="T56" t="s">
-        <v>132</v>
-      </c>
-      <c r="U56" t="s">
-        <v>311</v>
-      </c>
-      <c r="V56" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -6166,63 +6469,63 @@
         <v>35</v>
       </c>
       <c r="E57" t="s">
+        <v>312</v>
+      </c>
+      <c r="F57" t="s">
         <v>235</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>400</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>5</v>
-      </c>
-      <c r="H57">
-        <v>80</v>
       </c>
       <c r="I57">
         <v>1.25</v>
       </c>
       <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>80</v>
+      </c>
+      <c r="L57" t="s">
+        <v>222</v>
+      </c>
+      <c r="M57" t="s">
+        <v>224</v>
+      </c>
+      <c r="N57">
+        <v>30</v>
+      </c>
+      <c r="O57" t="s">
+        <v>162</v>
+      </c>
+      <c r="P57">
+        <v>150</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>166</v>
+      </c>
+      <c r="R57" t="s">
+        <v>313</v>
+      </c>
+      <c r="S57" t="s">
+        <v>237</v>
+      </c>
+      <c r="T57">
+        <v>400</v>
+      </c>
+      <c r="U57">
         <v>2.5</v>
       </c>
-      <c r="K57">
-        <v>10</v>
-      </c>
-      <c r="L57">
-        <v>400</v>
-      </c>
-      <c r="M57">
-        <v>30</v>
-      </c>
-      <c r="N57" t="s">
-        <v>162</v>
-      </c>
-      <c r="O57">
-        <v>150</v>
-      </c>
-      <c r="P57" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="V57" t="s">
         <v>233</v>
-      </c>
-      <c r="R57" t="s">
-        <v>224</v>
-      </c>
-      <c r="S57" t="s">
-        <v>166</v>
-      </c>
-      <c r="T57" t="s">
-        <v>312</v>
-      </c>
-      <c r="U57" t="s">
-        <v>313</v>
-      </c>
-      <c r="V57" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>421</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -6231,63 +6534,63 @@
         <v>35</v>
       </c>
       <c r="E58" t="s">
+        <v>315</v>
+      </c>
+      <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>400</v>
       </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
       <c r="H58">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I58">
         <v>1.25</v>
       </c>
       <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58" t="s">
+        <v>222</v>
+      </c>
+      <c r="M58" t="s">
+        <v>224</v>
+      </c>
+      <c r="N58">
+        <v>30</v>
+      </c>
+      <c r="O58" t="s">
+        <v>162</v>
+      </c>
+      <c r="P58">
+        <v>150</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>166</v>
+      </c>
+      <c r="R58" t="s">
+        <v>316</v>
+      </c>
+      <c r="S58" t="s">
+        <v>237</v>
+      </c>
+      <c r="T58">
+        <v>400</v>
+      </c>
+      <c r="U58">
         <v>5</v>
       </c>
-      <c r="K58">
-        <v>10</v>
-      </c>
-      <c r="L58">
-        <v>400</v>
-      </c>
-      <c r="M58">
-        <v>30</v>
-      </c>
-      <c r="N58" t="s">
-        <v>162</v>
-      </c>
-      <c r="O58">
-        <v>150</v>
-      </c>
-      <c r="P58" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q58" t="s">
+      <c r="V58" t="s">
         <v>233</v>
-      </c>
-      <c r="R58" t="s">
-        <v>224</v>
-      </c>
-      <c r="S58" t="s">
-        <v>166</v>
-      </c>
-      <c r="T58" t="s">
-        <v>315</v>
-      </c>
-      <c r="U58" t="s">
-        <v>316</v>
-      </c>
-      <c r="V58" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>422</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -6295,64 +6598,67 @@
       <c r="C59">
         <v>35</v>
       </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="E59" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" t="s">
         <v>229</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>600</v>
       </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
       <c r="H59">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="I59">
         <v>1.5</v>
       </c>
       <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>120</v>
+      </c>
+      <c r="L59" t="s">
+        <v>222</v>
+      </c>
+      <c r="M59" t="s">
+        <v>224</v>
+      </c>
+      <c r="N59">
+        <v>85</v>
+      </c>
+      <c r="O59" t="s">
+        <v>162</v>
+      </c>
+      <c r="P59">
+        <v>150</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>166</v>
+      </c>
+      <c r="R59" t="s">
+        <v>318</v>
+      </c>
+      <c r="S59" t="s">
+        <v>226</v>
+      </c>
+      <c r="T59">
+        <v>600</v>
+      </c>
+      <c r="U59">
         <v>5</v>
       </c>
-      <c r="K59">
-        <v>10</v>
-      </c>
-      <c r="L59">
-        <v>600</v>
-      </c>
-      <c r="M59">
-        <v>85</v>
-      </c>
-      <c r="N59" t="s">
-        <v>162</v>
-      </c>
-      <c r="O59">
-        <v>150</v>
-      </c>
-      <c r="P59" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="V59" t="s">
         <v>233</v>
-      </c>
-      <c r="R59" t="s">
-        <v>224</v>
-      </c>
-      <c r="S59" t="s">
-        <v>166</v>
-      </c>
-      <c r="T59" t="s">
-        <v>317</v>
-      </c>
-      <c r="U59" t="s">
-        <v>318</v>
-      </c>
-      <c r="V59" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>415</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -6360,64 +6666,67 @@
       <c r="C60">
         <v>35</v>
       </c>
+      <c r="D60" t="s">
+        <v>398</v>
+      </c>
       <c r="E60" t="s">
+        <v>320</v>
+      </c>
+      <c r="F60" t="s">
         <v>319</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>300</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>20</v>
-      </c>
-      <c r="H60">
-        <v>250</v>
       </c>
       <c r="I60">
         <v>1.3</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K60">
-        <v>25</v>
-      </c>
-      <c r="L60">
+        <v>250</v>
+      </c>
+      <c r="L60" t="s">
+        <v>222</v>
+      </c>
+      <c r="M60" t="s">
+        <v>224</v>
+      </c>
+      <c r="N60">
+        <v>30</v>
+      </c>
+      <c r="O60" t="s">
+        <v>162</v>
+      </c>
+      <c r="P60">
+        <v>150</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>166</v>
+      </c>
+      <c r="R60" t="s">
+        <v>321</v>
+      </c>
+      <c r="S60" t="s">
+        <v>237</v>
+      </c>
+      <c r="T60">
         <v>300</v>
       </c>
-      <c r="M60">
-        <v>30</v>
-      </c>
-      <c r="N60" t="s">
-        <v>162</v>
-      </c>
-      <c r="O60">
-        <v>150</v>
-      </c>
-      <c r="P60" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="U60">
+        <v>10</v>
+      </c>
+      <c r="V60" t="s">
         <v>233</v>
-      </c>
-      <c r="R60" t="s">
-        <v>224</v>
-      </c>
-      <c r="S60" t="s">
-        <v>166</v>
-      </c>
-      <c r="T60" t="s">
-        <v>320</v>
-      </c>
-      <c r="U60" t="s">
-        <v>321</v>
-      </c>
-      <c r="V60" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>416</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -6425,17 +6734,20 @@
       <c r="C61">
         <v>35</v>
       </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
       <c r="E61" t="s">
+        <v>322</v>
+      </c>
+      <c r="F61" t="s">
         <v>231</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>600</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>20</v>
-      </c>
-      <c r="H61">
-        <v>180</v>
       </c>
       <c r="I61">
         <v>1.5</v>
@@ -6444,45 +6756,45 @@
         <v>10</v>
       </c>
       <c r="K61">
-        <v>10</v>
-      </c>
-      <c r="L61">
+        <v>180</v>
+      </c>
+      <c r="L61" t="s">
+        <v>222</v>
+      </c>
+      <c r="M61" t="s">
+        <v>224</v>
+      </c>
+      <c r="N61">
+        <v>95</v>
+      </c>
+      <c r="O61" t="s">
+        <v>162</v>
+      </c>
+      <c r="P61">
+        <v>150</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>166</v>
+      </c>
+      <c r="R61" t="s">
+        <v>323</v>
+      </c>
+      <c r="S61" t="s">
+        <v>226</v>
+      </c>
+      <c r="T61">
         <v>600</v>
       </c>
-      <c r="M61">
-        <v>95</v>
-      </c>
-      <c r="N61" t="s">
-        <v>162</v>
-      </c>
-      <c r="O61">
-        <v>150</v>
-      </c>
-      <c r="P61" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="U61">
+        <v>10</v>
+      </c>
+      <c r="V61" t="s">
         <v>233</v>
-      </c>
-      <c r="R61" t="s">
-        <v>224</v>
-      </c>
-      <c r="S61" t="s">
-        <v>166</v>
-      </c>
-      <c r="T61" t="s">
-        <v>322</v>
-      </c>
-      <c r="U61" t="s">
-        <v>323</v>
-      </c>
-      <c r="V61" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -6490,59 +6802,62 @@
       <c r="C62">
         <v>39</v>
       </c>
+      <c r="D62" t="s">
+        <v>398</v>
+      </c>
       <c r="E62" t="s">
+        <v>324</v>
+      </c>
+      <c r="F62" t="s">
         <v>244</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>200</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>5</v>
-      </c>
-      <c r="H62">
-        <v>70</v>
       </c>
       <c r="I62">
         <v>0.96</v>
       </c>
       <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>70</v>
+      </c>
+      <c r="L62" t="s">
+        <v>222</v>
+      </c>
+      <c r="M62" t="s">
+        <v>224</v>
+      </c>
+      <c r="N62">
+        <v>25</v>
+      </c>
+      <c r="O62" t="s">
+        <v>162</v>
+      </c>
+      <c r="P62">
+        <v>150</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>166</v>
+      </c>
+      <c r="R62" t="s">
+        <v>325</v>
+      </c>
+      <c r="S62" t="s">
+        <v>248</v>
+      </c>
+      <c r="T62">
+        <v>200</v>
+      </c>
+      <c r="U62">
         <v>2.5</v>
       </c>
-      <c r="K62">
-        <v>10</v>
-      </c>
-      <c r="L62">
-        <v>200</v>
-      </c>
-      <c r="M62">
-        <v>25</v>
-      </c>
-      <c r="N62" t="s">
-        <v>162</v>
-      </c>
-      <c r="O62">
-        <v>150</v>
-      </c>
-      <c r="P62" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="V62" t="s">
         <v>245</v>
-      </c>
-      <c r="R62" t="s">
-        <v>224</v>
-      </c>
-      <c r="S62" t="s">
-        <v>166</v>
-      </c>
-      <c r="T62" t="s">
-        <v>324</v>
-      </c>
-      <c r="U62" t="s">
-        <v>325</v>
-      </c>
-      <c r="V62" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -6555,59 +6870,62 @@
       <c r="C63">
         <v>39</v>
       </c>
+      <c r="D63" t="s">
+        <v>398</v>
+      </c>
       <c r="E63" t="s">
+        <v>327</v>
+      </c>
+      <c r="F63" t="s">
         <v>326</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>200</v>
       </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
       <c r="H63">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I63">
         <v>0.96</v>
       </c>
       <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63" t="s">
+        <v>222</v>
+      </c>
+      <c r="M63" t="s">
+        <v>224</v>
+      </c>
+      <c r="N63">
+        <v>25</v>
+      </c>
+      <c r="O63" t="s">
+        <v>162</v>
+      </c>
+      <c r="P63">
+        <v>150</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>166</v>
+      </c>
+      <c r="R63" t="s">
+        <v>328</v>
+      </c>
+      <c r="S63" t="s">
+        <v>248</v>
+      </c>
+      <c r="T63">
+        <v>200</v>
+      </c>
+      <c r="U63">
         <v>5</v>
       </c>
-      <c r="K63">
-        <v>10</v>
-      </c>
-      <c r="L63">
-        <v>200</v>
-      </c>
-      <c r="M63">
-        <v>25</v>
-      </c>
-      <c r="N63" t="s">
-        <v>162</v>
-      </c>
-      <c r="O63">
-        <v>150</v>
-      </c>
-      <c r="P63" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="V63" t="s">
         <v>245</v>
-      </c>
-      <c r="R63" t="s">
-        <v>224</v>
-      </c>
-      <c r="S63" t="s">
-        <v>166</v>
-      </c>
-      <c r="T63" t="s">
-        <v>327</v>
-      </c>
-      <c r="U63" t="s">
-        <v>328</v>
-      </c>
-      <c r="V63" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
@@ -6620,17 +6938,20 @@
       <c r="C64">
         <v>39</v>
       </c>
+      <c r="D64" t="s">
+        <v>398</v>
+      </c>
       <c r="E64" t="s">
+        <v>330</v>
+      </c>
+      <c r="F64" t="s">
         <v>329</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>200</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>20</v>
-      </c>
-      <c r="H64">
-        <v>150</v>
       </c>
       <c r="I64">
         <v>0.96</v>
@@ -6639,45 +6960,45 @@
         <v>10</v>
       </c>
       <c r="K64">
-        <v>10</v>
-      </c>
-      <c r="L64">
+        <v>150</v>
+      </c>
+      <c r="L64" t="s">
+        <v>222</v>
+      </c>
+      <c r="M64" t="s">
+        <v>224</v>
+      </c>
+      <c r="N64">
+        <v>25</v>
+      </c>
+      <c r="O64" t="s">
+        <v>162</v>
+      </c>
+      <c r="P64">
+        <v>150</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>166</v>
+      </c>
+      <c r="R64" t="s">
+        <v>331</v>
+      </c>
+      <c r="S64" t="s">
+        <v>248</v>
+      </c>
+      <c r="T64">
         <v>200</v>
       </c>
-      <c r="M64">
-        <v>25</v>
-      </c>
-      <c r="N64" t="s">
-        <v>162</v>
-      </c>
-      <c r="O64">
-        <v>150</v>
-      </c>
-      <c r="P64" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q64" t="s">
+      <c r="U64">
+        <v>10</v>
+      </c>
+      <c r="V64" t="s">
         <v>245</v>
-      </c>
-      <c r="R64" t="s">
-        <v>224</v>
-      </c>
-      <c r="S64" t="s">
-        <v>166</v>
-      </c>
-      <c r="T64" t="s">
-        <v>330</v>
-      </c>
-      <c r="U64" t="s">
-        <v>331</v>
-      </c>
-      <c r="V64" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -6685,17 +7006,20 @@
       <c r="C65">
         <v>41</v>
       </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
       <c r="E65" t="s">
+        <v>332</v>
+      </c>
+      <c r="F65" t="s">
         <v>329</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>200</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>20</v>
-      </c>
-      <c r="H65">
-        <v>120</v>
       </c>
       <c r="I65">
         <v>0.96</v>
@@ -6704,40 +7028,40 @@
         <v>10</v>
       </c>
       <c r="K65">
-        <v>10</v>
-      </c>
-      <c r="L65">
+        <v>120</v>
+      </c>
+      <c r="L65" t="s">
+        <v>222</v>
+      </c>
+      <c r="M65" t="s">
+        <v>253</v>
+      </c>
+      <c r="N65">
+        <v>25</v>
+      </c>
+      <c r="O65" t="s">
+        <v>162</v>
+      </c>
+      <c r="P65">
+        <v>150</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>166</v>
+      </c>
+      <c r="R65" t="s">
+        <v>333</v>
+      </c>
+      <c r="S65" t="s">
+        <v>248</v>
+      </c>
+      <c r="T65">
         <v>200</v>
       </c>
-      <c r="M65">
-        <v>25</v>
-      </c>
-      <c r="N65" t="s">
-        <v>162</v>
-      </c>
-      <c r="O65">
-        <v>150</v>
-      </c>
-      <c r="P65" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q65" t="s">
+      <c r="U65">
+        <v>10</v>
+      </c>
+      <c r="V65" t="s">
         <v>252</v>
-      </c>
-      <c r="R65" t="s">
-        <v>253</v>
-      </c>
-      <c r="S65" t="s">
-        <v>166</v>
-      </c>
-      <c r="T65" t="s">
-        <v>332</v>
-      </c>
-      <c r="U65" t="s">
-        <v>333</v>
-      </c>
-      <c r="V65" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -6751,63 +7075,63 @@
         <v>41</v>
       </c>
       <c r="E66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" t="s">
         <v>319</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>300</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>20</v>
-      </c>
-      <c r="H66">
-        <v>220</v>
       </c>
       <c r="I66">
         <v>1.3</v>
       </c>
       <c r="J66">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K66">
-        <v>25</v>
-      </c>
-      <c r="L66">
+        <v>220</v>
+      </c>
+      <c r="L66" t="s">
+        <v>222</v>
+      </c>
+      <c r="M66" t="s">
+        <v>253</v>
+      </c>
+      <c r="N66">
+        <v>30</v>
+      </c>
+      <c r="O66" t="s">
+        <v>162</v>
+      </c>
+      <c r="P66">
+        <v>150</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>166</v>
+      </c>
+      <c r="R66" t="s">
+        <v>334</v>
+      </c>
+      <c r="S66" t="s">
+        <v>248</v>
+      </c>
+      <c r="T66">
         <v>300</v>
       </c>
-      <c r="M66">
-        <v>30</v>
-      </c>
-      <c r="N66" t="s">
-        <v>162</v>
-      </c>
-      <c r="O66">
-        <v>150</v>
-      </c>
-      <c r="P66" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q66" t="s">
+      <c r="U66">
+        <v>10</v>
+      </c>
+      <c r="V66" t="s">
         <v>252</v>
-      </c>
-      <c r="R66" t="s">
-        <v>253</v>
-      </c>
-      <c r="S66" t="s">
-        <v>166</v>
-      </c>
-      <c r="T66" t="s">
-        <v>133</v>
-      </c>
-      <c r="U66" t="s">
-        <v>334</v>
-      </c>
-      <c r="V66" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -6815,64 +7139,67 @@
       <c r="C67">
         <v>41</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="E67" t="s">
+        <v>336</v>
+      </c>
+      <c r="F67" t="s">
         <v>335</v>
       </c>
-      <c r="F67">
+      <c r="G67" s="1">
         <v>400</v>
       </c>
-      <c r="G67">
+      <c r="H67" s="1">
         <v>20</v>
       </c>
-      <c r="H67">
+      <c r="I67" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="J67" s="1">
+        <v>10</v>
+      </c>
+      <c r="K67" s="1">
         <v>130</v>
       </c>
-      <c r="I67">
-        <v>1.25</v>
-      </c>
-      <c r="J67">
-        <v>10</v>
-      </c>
-      <c r="K67">
-        <v>10</v>
-      </c>
-      <c r="L67">
+      <c r="L67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N67" s="1">
+        <v>30</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P67" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>166</v>
+      </c>
+      <c r="R67" t="s">
+        <v>337</v>
+      </c>
+      <c r="S67" t="s">
+        <v>248</v>
+      </c>
+      <c r="T67">
         <v>400</v>
       </c>
-      <c r="M67">
-        <v>30</v>
-      </c>
-      <c r="N67" t="s">
-        <v>162</v>
-      </c>
-      <c r="O67">
-        <v>150</v>
-      </c>
-      <c r="P67" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q67" t="s">
+      <c r="U67">
+        <v>10</v>
+      </c>
+      <c r="V67" t="s">
         <v>252</v>
-      </c>
-      <c r="R67" t="s">
-        <v>253</v>
-      </c>
-      <c r="S67" t="s">
-        <v>166</v>
-      </c>
-      <c r="T67" t="s">
-        <v>336</v>
-      </c>
-      <c r="U67" t="s">
-        <v>337</v>
-      </c>
-      <c r="V67" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>410</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -6880,64 +7207,67 @@
       <c r="C68">
         <v>41</v>
       </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
       <c r="E68" t="s">
+        <v>338</v>
+      </c>
+      <c r="F68" t="s">
         <v>231</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>600</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>20</v>
-      </c>
-      <c r="H68">
-        <v>60</v>
       </c>
       <c r="I68">
         <v>3.6</v>
       </c>
       <c r="J68">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>50</v>
-      </c>
-      <c r="L68">
+        <v>60</v>
+      </c>
+      <c r="L68" t="s">
+        <v>222</v>
+      </c>
+      <c r="M68" t="s">
+        <v>253</v>
+      </c>
+      <c r="N68">
+        <v>25</v>
+      </c>
+      <c r="O68" t="s">
+        <v>162</v>
+      </c>
+      <c r="P68">
+        <v>150</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>166</v>
+      </c>
+      <c r="R68" t="s">
+        <v>339</v>
+      </c>
+      <c r="S68" t="s">
+        <v>255</v>
+      </c>
+      <c r="T68">
         <v>600</v>
       </c>
-      <c r="M68">
-        <v>25</v>
-      </c>
-      <c r="N68" t="s">
-        <v>162</v>
-      </c>
-      <c r="O68">
-        <v>150</v>
-      </c>
-      <c r="P68" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q68" t="s">
+      <c r="U68">
+        <v>10</v>
+      </c>
+      <c r="V68" t="s">
         <v>252</v>
-      </c>
-      <c r="R68" t="s">
-        <v>253</v>
-      </c>
-      <c r="S68" t="s">
-        <v>166</v>
-      </c>
-      <c r="T68" t="s">
-        <v>338</v>
-      </c>
-      <c r="U68" t="s">
-        <v>339</v>
-      </c>
-      <c r="V68" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>403</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -6945,64 +7275,67 @@
       <c r="C69">
         <v>41</v>
       </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
       <c r="E69" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69" t="s">
         <v>335</v>
       </c>
-      <c r="F69">
+      <c r="G69" s="1">
         <v>400</v>
       </c>
-      <c r="G69">
+      <c r="H69" s="1">
         <v>20</v>
       </c>
-      <c r="H69">
+      <c r="I69" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="J69" s="1">
+        <v>10</v>
+      </c>
+      <c r="K69" s="1">
         <v>200</v>
       </c>
-      <c r="I69">
-        <v>1.25</v>
-      </c>
-      <c r="J69">
-        <v>10</v>
-      </c>
-      <c r="K69">
-        <v>10</v>
-      </c>
-      <c r="L69">
+      <c r="L69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N69" s="1">
+        <v>30</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P69" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>166</v>
+      </c>
+      <c r="R69" t="s">
+        <v>342</v>
+      </c>
+      <c r="S69" t="s">
+        <v>248</v>
+      </c>
+      <c r="T69">
         <v>400</v>
       </c>
-      <c r="M69">
-        <v>30</v>
-      </c>
-      <c r="N69" t="s">
-        <v>162</v>
-      </c>
-      <c r="O69">
-        <v>150</v>
-      </c>
-      <c r="P69" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q69" t="s">
+      <c r="U69">
+        <v>10</v>
+      </c>
+      <c r="V69" t="s">
         <v>340</v>
-      </c>
-      <c r="R69" t="s">
-        <v>253</v>
-      </c>
-      <c r="S69" t="s">
-        <v>166</v>
-      </c>
-      <c r="T69" t="s">
-        <v>341</v>
-      </c>
-      <c r="U69" t="s">
-        <v>342</v>
-      </c>
-      <c r="V69" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -7010,64 +7343,67 @@
       <c r="C70">
         <v>43</v>
       </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>329</v>
       </c>
-      <c r="F70">
+      <c r="G70" s="1">
         <v>200</v>
       </c>
-      <c r="G70">
+      <c r="H70" s="1">
         <v>20</v>
       </c>
-      <c r="H70">
-        <v>150</v>
-      </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>0.98</v>
       </c>
-      <c r="J70">
-        <v>10</v>
-      </c>
-      <c r="K70">
-        <v>10</v>
-      </c>
-      <c r="L70">
+      <c r="J70" s="1">
+        <v>10</v>
+      </c>
+      <c r="K70" s="1">
+        <v>150</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N70" s="1">
+        <v>35</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P70" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>166</v>
+      </c>
+      <c r="R70" t="s">
+        <v>343</v>
+      </c>
+      <c r="S70" t="s">
+        <v>344</v>
+      </c>
+      <c r="T70">
         <v>200</v>
       </c>
-      <c r="M70">
-        <v>35</v>
-      </c>
-      <c r="N70" t="s">
-        <v>275</v>
-      </c>
-      <c r="O70">
-        <v>150</v>
-      </c>
-      <c r="P70" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q70" t="s">
+      <c r="U70">
+        <v>10</v>
+      </c>
+      <c r="V70" t="s">
         <v>258</v>
-      </c>
-      <c r="R70" t="s">
-        <v>259</v>
-      </c>
-      <c r="S70" t="s">
-        <v>166</v>
-      </c>
-      <c r="T70" t="s">
-        <v>134</v>
-      </c>
-      <c r="U70" t="s">
-        <v>343</v>
-      </c>
-      <c r="V70" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -7075,64 +7411,67 @@
       <c r="C71">
         <v>43</v>
       </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
       <c r="E71" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" t="s">
         <v>335</v>
       </c>
-      <c r="F71">
+      <c r="G71" s="1">
         <v>400</v>
       </c>
-      <c r="G71">
+      <c r="H71" s="1">
         <v>20</v>
       </c>
-      <c r="H71">
+      <c r="I71" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J71" s="1">
+        <v>10</v>
+      </c>
+      <c r="K71" s="1">
         <v>120</v>
       </c>
-      <c r="I71">
-        <v>1.3</v>
-      </c>
-      <c r="J71">
-        <v>10</v>
-      </c>
-      <c r="K71">
-        <v>10</v>
-      </c>
-      <c r="L71">
+      <c r="L71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N71" s="1">
+        <v>50</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P71" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>166</v>
+      </c>
+      <c r="R71" t="s">
+        <v>345</v>
+      </c>
+      <c r="S71" t="s">
+        <v>344</v>
+      </c>
+      <c r="T71">
         <v>400</v>
       </c>
-      <c r="M71">
-        <v>50</v>
-      </c>
-      <c r="N71" t="s">
-        <v>275</v>
-      </c>
-      <c r="O71">
-        <v>150</v>
-      </c>
-      <c r="P71" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q71" t="s">
+      <c r="U71">
+        <v>10</v>
+      </c>
+      <c r="V71" t="s">
         <v>258</v>
-      </c>
-      <c r="R71" t="s">
-        <v>259</v>
-      </c>
-      <c r="S71" t="s">
-        <v>166</v>
-      </c>
-      <c r="T71" t="s">
-        <v>135</v>
-      </c>
-      <c r="U71" t="s">
-        <v>345</v>
-      </c>
-      <c r="V71" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>396</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -7140,64 +7479,67 @@
       <c r="C72">
         <v>44</v>
       </c>
+      <c r="D72" t="s">
+        <v>398</v>
+      </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>346</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>400</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>120</v>
-      </c>
-      <c r="H72">
-        <v>650</v>
       </c>
       <c r="I72">
         <v>1.3</v>
       </c>
       <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>650</v>
+      </c>
+      <c r="L72" t="s">
+        <v>347</v>
+      </c>
+      <c r="M72" t="s">
+        <v>348</v>
+      </c>
+      <c r="N72">
+        <v>100</v>
+      </c>
+      <c r="O72" t="s">
+        <v>275</v>
+      </c>
+      <c r="P72">
+        <v>150</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>166</v>
+      </c>
+      <c r="R72" t="s">
+        <v>349</v>
+      </c>
+      <c r="S72" t="s">
+        <v>350</v>
+      </c>
+      <c r="T72">
+        <v>400</v>
+      </c>
+      <c r="U72">
         <v>60</v>
       </c>
-      <c r="K72">
-        <v>25</v>
-      </c>
-      <c r="L72">
-        <v>400</v>
-      </c>
-      <c r="M72">
-        <v>100</v>
-      </c>
-      <c r="N72" t="s">
-        <v>275</v>
-      </c>
-      <c r="O72">
-        <v>150</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="V72" t="s">
         <v>347</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>347</v>
-      </c>
-      <c r="R72" t="s">
-        <v>348</v>
-      </c>
-      <c r="S72" t="s">
-        <v>166</v>
-      </c>
-      <c r="T72" t="s">
-        <v>136</v>
-      </c>
-      <c r="U72" t="s">
-        <v>349</v>
-      </c>
-      <c r="V72" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -7205,67 +7547,67 @@
       <c r="C73">
         <v>44</v>
       </c>
-      <c r="D73">
-        <v>-1</v>
+      <c r="D73" t="s">
+        <v>398</v>
       </c>
       <c r="E73" t="s">
+        <v>351</v>
+      </c>
+      <c r="F73" t="s">
         <v>346</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>400</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>120</v>
-      </c>
-      <c r="H73">
-        <v>650</v>
       </c>
       <c r="I73">
         <v>1.3</v>
       </c>
       <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73">
+        <v>650</v>
+      </c>
+      <c r="L73" t="s">
+        <v>347</v>
+      </c>
+      <c r="M73" t="s">
+        <v>348</v>
+      </c>
+      <c r="N73">
+        <v>100</v>
+      </c>
+      <c r="O73" t="s">
+        <v>275</v>
+      </c>
+      <c r="P73">
+        <v>150</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>166</v>
+      </c>
+      <c r="R73" t="s">
+        <v>352</v>
+      </c>
+      <c r="S73" t="s">
+        <v>350</v>
+      </c>
+      <c r="T73">
+        <v>400</v>
+      </c>
+      <c r="U73">
         <v>60</v>
       </c>
-      <c r="K73">
-        <v>25</v>
-      </c>
-      <c r="L73">
-        <v>400</v>
-      </c>
-      <c r="M73">
-        <v>100</v>
-      </c>
-      <c r="N73" t="s">
-        <v>275</v>
-      </c>
-      <c r="O73">
-        <v>150</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="V73" t="s">
         <v>347</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>347</v>
-      </c>
-      <c r="R73" t="s">
-        <v>348</v>
-      </c>
-      <c r="S73" t="s">
-        <v>166</v>
-      </c>
-      <c r="T73" t="s">
-        <v>351</v>
-      </c>
-      <c r="U73" t="s">
-        <v>352</v>
-      </c>
-      <c r="V73" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>397</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -7273,64 +7615,67 @@
       <c r="C74">
         <v>44</v>
       </c>
+      <c r="D74" t="s">
+        <v>398</v>
+      </c>
       <c r="E74" t="s">
+        <v>354</v>
+      </c>
+      <c r="F74" t="s">
         <v>353</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>400</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>200</v>
-      </c>
-      <c r="H74">
-        <v>1400</v>
       </c>
       <c r="I74">
         <v>1.3</v>
       </c>
       <c r="J74">
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <v>1400</v>
+      </c>
+      <c r="L74" t="s">
+        <v>347</v>
+      </c>
+      <c r="M74" t="s">
+        <v>348</v>
+      </c>
+      <c r="N74">
+        <v>150</v>
+      </c>
+      <c r="O74" t="s">
+        <v>275</v>
+      </c>
+      <c r="P74">
+        <v>150</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>166</v>
+      </c>
+      <c r="R74" t="s">
+        <v>355</v>
+      </c>
+      <c r="S74" t="s">
+        <v>350</v>
+      </c>
+      <c r="T74">
+        <v>400</v>
+      </c>
+      <c r="U74">
         <v>100</v>
       </c>
-      <c r="K74">
-        <v>50</v>
-      </c>
-      <c r="L74">
-        <v>400</v>
-      </c>
-      <c r="M74">
-        <v>150</v>
-      </c>
-      <c r="N74" t="s">
-        <v>275</v>
-      </c>
-      <c r="O74">
-        <v>150</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="V74" t="s">
         <v>347</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>347</v>
-      </c>
-      <c r="R74" t="s">
-        <v>348</v>
-      </c>
-      <c r="S74" t="s">
-        <v>166</v>
-      </c>
-      <c r="T74" t="s">
-        <v>354</v>
-      </c>
-      <c r="U74" t="s">
-        <v>355</v>
-      </c>
-      <c r="V74" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7338,62 +7683,62 @@
       <c r="C75">
         <v>44</v>
       </c>
-      <c r="D75">
-        <v>-1</v>
+      <c r="D75" t="s">
+        <v>398</v>
       </c>
       <c r="E75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" t="s">
         <v>356</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>400</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>240</v>
-      </c>
-      <c r="H75">
-        <v>1400</v>
       </c>
       <c r="I75">
         <v>1.3</v>
       </c>
       <c r="J75">
+        <v>50</v>
+      </c>
+      <c r="K75">
+        <v>1400</v>
+      </c>
+      <c r="L75" t="s">
+        <v>347</v>
+      </c>
+      <c r="M75" t="s">
+        <v>348</v>
+      </c>
+      <c r="N75">
+        <v>150</v>
+      </c>
+      <c r="O75" t="s">
+        <v>275</v>
+      </c>
+      <c r="P75">
+        <v>150</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>166</v>
+      </c>
+      <c r="R75" t="s">
+        <v>357</v>
+      </c>
+      <c r="S75" t="s">
+        <v>350</v>
+      </c>
+      <c r="T75">
+        <v>400</v>
+      </c>
+      <c r="U75">
         <v>120</v>
       </c>
-      <c r="K75">
-        <v>50</v>
-      </c>
-      <c r="L75">
-        <v>400</v>
-      </c>
-      <c r="M75">
-        <v>150</v>
-      </c>
-      <c r="N75" t="s">
-        <v>275</v>
-      </c>
-      <c r="O75">
-        <v>150</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="V75" t="s">
         <v>347</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>347</v>
-      </c>
-      <c r="R75" t="s">
-        <v>348</v>
-      </c>
-      <c r="S75" t="s">
-        <v>166</v>
-      </c>
-      <c r="T75" t="s">
-        <v>137</v>
-      </c>
-      <c r="U75" t="s">
-        <v>357</v>
-      </c>
-      <c r="V75" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -7410,63 +7755,63 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" t="s">
         <v>358</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>200</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>4</v>
-      </c>
-      <c r="H76">
-        <v>80</v>
       </c>
       <c r="I76">
         <v>0.98</v>
       </c>
       <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>80</v>
+      </c>
+      <c r="L76" t="s">
+        <v>222</v>
+      </c>
+      <c r="M76" t="s">
+        <v>360</v>
+      </c>
+      <c r="N76">
+        <v>35</v>
+      </c>
+      <c r="O76" t="s">
+        <v>162</v>
+      </c>
+      <c r="P76">
+        <v>150</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>166</v>
+      </c>
+      <c r="R76" t="s">
+        <v>361</v>
+      </c>
+      <c r="S76" t="s">
+        <v>362</v>
+      </c>
+      <c r="T76">
+        <v>200</v>
+      </c>
+      <c r="U76">
         <v>2</v>
       </c>
-      <c r="K76">
-        <v>10</v>
-      </c>
-      <c r="L76">
-        <v>200</v>
-      </c>
-      <c r="M76">
-        <v>35</v>
-      </c>
-      <c r="N76" t="s">
-        <v>162</v>
-      </c>
-      <c r="O76">
-        <v>150</v>
-      </c>
-      <c r="P76" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="V76" t="s">
         <v>359</v>
-      </c>
-      <c r="R76" t="s">
-        <v>360</v>
-      </c>
-      <c r="S76" t="s">
-        <v>166</v>
-      </c>
-      <c r="T76" t="s">
-        <v>138</v>
-      </c>
-      <c r="U76" t="s">
-        <v>361</v>
-      </c>
-      <c r="V76" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7474,64 +7819,67 @@
       <c r="C77">
         <v>45</v>
       </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
       <c r="E77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" t="s">
         <v>363</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>400</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>4</v>
-      </c>
-      <c r="H77">
-        <v>50</v>
       </c>
       <c r="I77">
         <v>1.3</v>
       </c>
       <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77" t="s">
+        <v>222</v>
+      </c>
+      <c r="M77" t="s">
+        <v>360</v>
+      </c>
+      <c r="N77">
+        <v>50</v>
+      </c>
+      <c r="O77" t="s">
+        <v>162</v>
+      </c>
+      <c r="P77">
+        <v>150</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>166</v>
+      </c>
+      <c r="R77" t="s">
+        <v>364</v>
+      </c>
+      <c r="S77" t="s">
+        <v>362</v>
+      </c>
+      <c r="T77">
+        <v>400</v>
+      </c>
+      <c r="U77">
         <v>2.5</v>
       </c>
-      <c r="K77">
-        <v>10</v>
-      </c>
-      <c r="L77">
-        <v>400</v>
-      </c>
-      <c r="M77">
-        <v>50</v>
-      </c>
-      <c r="N77" t="s">
-        <v>162</v>
-      </c>
-      <c r="O77">
-        <v>150</v>
-      </c>
-      <c r="P77" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q77" t="s">
+      <c r="V77" t="s">
         <v>359</v>
-      </c>
-      <c r="R77" t="s">
-        <v>360</v>
-      </c>
-      <c r="S77" t="s">
-        <v>166</v>
-      </c>
-      <c r="T77" t="s">
-        <v>139</v>
-      </c>
-      <c r="U77" t="s">
-        <v>364</v>
-      </c>
-      <c r="V77" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7539,64 +7887,67 @@
       <c r="C78">
         <v>46</v>
       </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
       <c r="E78" t="s">
+        <v>366</v>
+      </c>
+      <c r="F78" t="s">
         <v>239</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>600</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>8</v>
-      </c>
-      <c r="H78">
-        <v>60</v>
       </c>
       <c r="I78">
         <v>3.6</v>
       </c>
       <c r="J78">
+        <v>50</v>
+      </c>
+      <c r="K78">
+        <v>60</v>
+      </c>
+      <c r="L78" t="s">
+        <v>222</v>
+      </c>
+      <c r="M78" t="s">
+        <v>224</v>
+      </c>
+      <c r="N78">
+        <v>25</v>
+      </c>
+      <c r="O78" t="s">
+        <v>162</v>
+      </c>
+      <c r="P78">
+        <v>150</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>166</v>
+      </c>
+      <c r="R78" t="s">
+        <v>367</v>
+      </c>
+      <c r="S78" t="s">
+        <v>226</v>
+      </c>
+      <c r="T78">
+        <v>600</v>
+      </c>
+      <c r="U78">
         <v>8</v>
       </c>
-      <c r="K78">
-        <v>50</v>
-      </c>
-      <c r="L78">
-        <v>600</v>
-      </c>
-      <c r="M78">
-        <v>25</v>
-      </c>
-      <c r="N78" t="s">
-        <v>162</v>
-      </c>
-      <c r="O78">
-        <v>150</v>
-      </c>
-      <c r="P78" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q78" t="s">
+      <c r="V78" t="s">
         <v>365</v>
-      </c>
-      <c r="R78" t="s">
-        <v>224</v>
-      </c>
-      <c r="S78" t="s">
-        <v>166</v>
-      </c>
-      <c r="T78" t="s">
-        <v>366</v>
-      </c>
-      <c r="U78" t="s">
-        <v>367</v>
-      </c>
-      <c r="V78" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7604,64 +7955,67 @@
       <c r="C79">
         <v>47</v>
       </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
       <c r="E79" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" t="s">
         <v>368</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>300</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>20</v>
-      </c>
-      <c r="H79">
-        <v>180</v>
       </c>
       <c r="I79">
         <v>1.3</v>
       </c>
       <c r="J79">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K79">
-        <v>25</v>
-      </c>
-      <c r="L79">
+        <v>180</v>
+      </c>
+      <c r="L79" t="s">
+        <v>222</v>
+      </c>
+      <c r="M79" t="s">
+        <v>224</v>
+      </c>
+      <c r="N79">
+        <v>30</v>
+      </c>
+      <c r="O79" t="s">
+        <v>162</v>
+      </c>
+      <c r="P79">
+        <v>150</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>166</v>
+      </c>
+      <c r="R79" t="s">
+        <v>369</v>
+      </c>
+      <c r="S79" t="s">
+        <v>237</v>
+      </c>
+      <c r="T79">
         <v>300</v>
       </c>
-      <c r="M79">
-        <v>30</v>
-      </c>
-      <c r="N79" t="s">
-        <v>162</v>
-      </c>
-      <c r="O79">
-        <v>150</v>
-      </c>
-      <c r="P79" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q79" t="s">
+      <c r="U79">
+        <v>10</v>
+      </c>
+      <c r="V79" t="s">
         <v>223</v>
-      </c>
-      <c r="R79" t="s">
-        <v>224</v>
-      </c>
-      <c r="S79" t="s">
-        <v>166</v>
-      </c>
-      <c r="T79" t="s">
-        <v>140</v>
-      </c>
-      <c r="U79" t="s">
-        <v>369</v>
-      </c>
-      <c r="V79" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7669,64 +8023,67 @@
       <c r="C80">
         <v>48</v>
       </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" t="s">
         <v>319</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>300</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>20</v>
-      </c>
-      <c r="H80">
-        <v>180</v>
       </c>
       <c r="I80">
         <v>1.3</v>
       </c>
       <c r="J80">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K80">
-        <v>25</v>
-      </c>
-      <c r="L80">
+        <v>180</v>
+      </c>
+      <c r="L80" t="s">
+        <v>222</v>
+      </c>
+      <c r="M80" t="s">
+        <v>253</v>
+      </c>
+      <c r="N80">
+        <v>30</v>
+      </c>
+      <c r="O80" t="s">
+        <v>162</v>
+      </c>
+      <c r="P80">
+        <v>150</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>166</v>
+      </c>
+      <c r="R80" t="s">
+        <v>371</v>
+      </c>
+      <c r="S80" t="s">
+        <v>248</v>
+      </c>
+      <c r="T80">
         <v>300</v>
       </c>
-      <c r="M80">
-        <v>30</v>
-      </c>
-      <c r="N80" t="s">
-        <v>162</v>
-      </c>
-      <c r="O80">
-        <v>150</v>
-      </c>
-      <c r="P80" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q80" t="s">
+      <c r="U80">
+        <v>10</v>
+      </c>
+      <c r="V80" t="s">
         <v>370</v>
-      </c>
-      <c r="R80" t="s">
-        <v>253</v>
-      </c>
-      <c r="S80" t="s">
-        <v>166</v>
-      </c>
-      <c r="T80" t="s">
-        <v>141</v>
-      </c>
-      <c r="U80" t="s">
-        <v>371</v>
-      </c>
-      <c r="V80" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7734,67 +8091,67 @@
       <c r="C81">
         <v>48</v>
       </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
       <c r="E81" t="s">
+        <v>372</v>
+      </c>
+      <c r="F81" t="s">
         <v>231</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>600</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>20</v>
-      </c>
-      <c r="H81">
-        <v>60</v>
       </c>
       <c r="I81">
         <v>3.6</v>
       </c>
       <c r="J81">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K81">
-        <v>50</v>
-      </c>
-      <c r="L81">
+        <v>60</v>
+      </c>
+      <c r="L81" t="s">
+        <v>222</v>
+      </c>
+      <c r="M81" t="s">
+        <v>253</v>
+      </c>
+      <c r="N81">
+        <v>25</v>
+      </c>
+      <c r="O81" t="s">
+        <v>162</v>
+      </c>
+      <c r="P81">
+        <v>150</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>166</v>
+      </c>
+      <c r="R81" t="s">
+        <v>373</v>
+      </c>
+      <c r="S81" t="s">
+        <v>255</v>
+      </c>
+      <c r="T81">
         <v>600</v>
       </c>
-      <c r="M81">
-        <v>25</v>
-      </c>
-      <c r="N81" t="s">
-        <v>162</v>
-      </c>
-      <c r="O81">
-        <v>150</v>
-      </c>
-      <c r="P81" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q81" t="s">
+      <c r="U81">
+        <v>10</v>
+      </c>
+      <c r="V81" t="s">
         <v>370</v>
-      </c>
-      <c r="R81" t="s">
-        <v>253</v>
-      </c>
-      <c r="S81" t="s">
-        <v>166</v>
-      </c>
-      <c r="T81" t="s">
-        <v>372</v>
-      </c>
-      <c r="U81" t="s">
-        <v>373</v>
-      </c>
-      <c r="V81" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/5 改版后自动化网页提交/5.4/写作序列.xlsx
+++ b/5 改版后自动化网页提交/5.4/写作序列.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="430">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,6 +1358,34 @@
   </si>
   <si>
     <t>SF10KC60M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF5K60M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF5LC40UM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF10K60M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S20LC30T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE5LC40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1NK100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2L60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2651,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4438,13 +4466,16 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>423</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27">
         <v>16</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>108</v>
@@ -4639,13 +4670,16 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30">
         <v>16</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>110</v>
@@ -5316,13 +5350,16 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40">
         <v>20</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -5585,13 +5622,16 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44">
         <v>24</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>122</v>
@@ -5794,6 +5834,9 @@
       <c r="C47">
         <v>29</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47" t="s">
         <v>125</v>
       </c>
@@ -6123,13 +6166,16 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>427</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52">
         <v>31</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>130</v>
@@ -6460,13 +6506,16 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>424</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57">
         <v>35</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>312</v>
@@ -6533,6 +6582,9 @@
       <c r="C58">
         <v>35</v>
       </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
       <c r="E58" t="s">
         <v>315</v>
       </c>
@@ -7066,13 +7118,16 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>426</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66">
         <v>41</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>133</v>
